--- a/HKSdata.xlsx
+++ b/HKSdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalcityholdings-my.sharepoint.com/personal/dagmara_skonecka-piec_parkofpoland_com/Documents/Desktop/ALKmaterials/sem3 WebMining/WeatherApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3F535EB-4D6B-4F95-AE95-EF09525391F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F3F535EB-4D6B-4F95-AE95-EF09525391F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E033FCDE-85D8-46AE-A1CA-63671158EF41}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{F047B9E8-A2E3-45D5-9803-8C9A01AD452E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F047B9E8-A2E3-45D5-9803-8C9A01AD452E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="13">
   <si>
     <t>Visit Day</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4291EB-E202-43F3-861D-100B376D71AC}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,882 +461,1822 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>45273</v>
+        <v>45275</v>
       </c>
       <c r="C2">
-        <v>420</v>
+        <v>121</v>
       </c>
       <c r="D2">
-        <v>317</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>653</v>
+        <v>240</v>
       </c>
       <c r="F2">
-        <v>1390</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="C3">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="D3">
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="E3">
-        <v>554</v>
+        <v>656</v>
       </c>
       <c r="F3">
-        <v>1173</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="C4">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="D4">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E4">
-        <v>718</v>
+        <v>653</v>
       </c>
       <c r="F4">
-        <v>1418</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>45270</v>
+        <v>45272</v>
       </c>
       <c r="C5">
-        <v>931</v>
+        <v>356</v>
       </c>
       <c r="D5">
-        <v>630</v>
+        <v>263</v>
       </c>
       <c r="E5">
-        <v>1191</v>
+        <v>554</v>
       </c>
       <c r="F5">
-        <v>2752</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>45269</v>
+        <v>45271</v>
       </c>
       <c r="C6">
-        <v>1343</v>
+        <v>363</v>
       </c>
       <c r="D6">
-        <v>675</v>
+        <v>337</v>
       </c>
       <c r="E6">
-        <v>1643</v>
+        <v>718</v>
       </c>
       <c r="F6">
-        <v>3661</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>45268</v>
+        <v>45270</v>
       </c>
       <c r="C7">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="D7">
-        <v>497</v>
+        <v>630</v>
       </c>
       <c r="E7">
-        <v>1006</v>
+        <v>1191</v>
       </c>
       <c r="F7">
-        <v>2418</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>45267</v>
+        <v>45269</v>
       </c>
       <c r="C8">
-        <v>335</v>
+        <v>1343</v>
       </c>
       <c r="D8">
-        <v>259</v>
+        <v>675</v>
       </c>
       <c r="E8">
-        <v>635</v>
+        <v>1643</v>
       </c>
       <c r="F8">
-        <v>1229</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C9">
-        <v>552</v>
+        <v>915</v>
       </c>
       <c r="D9">
-        <v>235</v>
+        <v>497</v>
       </c>
       <c r="E9">
-        <v>531</v>
+        <v>1006</v>
       </c>
       <c r="F9">
-        <v>1318</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>45265</v>
+        <v>45267</v>
       </c>
       <c r="C10">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D10">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E10">
-        <v>541</v>
+        <v>635</v>
       </c>
       <c r="F10">
-        <v>1130</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>45264</v>
+        <v>45266</v>
       </c>
       <c r="C11">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="D11">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="E11">
-        <v>694</v>
+        <v>531</v>
       </c>
       <c r="F11">
-        <v>1506</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>45263</v>
+        <v>45265</v>
       </c>
       <c r="C12">
+        <v>332</v>
+      </c>
+      <c r="D12">
+        <v>257</v>
+      </c>
+      <c r="E12">
+        <v>541</v>
+      </c>
+      <c r="F12">
         <v>1130</v>
-      </c>
-      <c r="D12">
-        <v>631</v>
-      </c>
-      <c r="E12">
-        <v>1229</v>
-      </c>
-      <c r="F12">
-        <v>2990</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>45262</v>
+        <v>45264</v>
       </c>
       <c r="C13">
-        <v>1559</v>
+        <v>528</v>
       </c>
       <c r="D13">
-        <v>802</v>
+        <v>284</v>
       </c>
       <c r="E13">
-        <v>1624</v>
+        <v>694</v>
       </c>
       <c r="F13">
-        <v>3985</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>45261</v>
+        <v>45263</v>
       </c>
       <c r="C14">
-        <v>753</v>
+        <v>1130</v>
       </c>
       <c r="D14">
-        <v>400</v>
+        <v>631</v>
       </c>
       <c r="E14">
-        <v>882</v>
+        <v>1229</v>
       </c>
       <c r="F14">
-        <v>2035</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
-        <v>45260</v>
+        <v>45262</v>
       </c>
       <c r="C15">
-        <v>405</v>
+        <v>1559</v>
       </c>
       <c r="D15">
-        <v>370</v>
+        <v>802</v>
       </c>
       <c r="E15">
-        <v>744</v>
+        <v>1624</v>
       </c>
       <c r="F15">
-        <v>1519</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
-        <v>45259</v>
+        <v>45261</v>
       </c>
       <c r="C16">
-        <v>550</v>
+        <v>753</v>
       </c>
       <c r="D16">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="E16">
-        <v>620</v>
+        <v>882</v>
       </c>
       <c r="F16">
-        <v>1516</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
-        <v>45258</v>
+        <v>45260</v>
       </c>
       <c r="C17">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D17">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="E17">
-        <v>666</v>
+        <v>744</v>
       </c>
       <c r="F17">
-        <v>1356</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
-        <v>45257</v>
+        <v>45259</v>
       </c>
       <c r="C18">
-        <v>308</v>
+        <v>550</v>
       </c>
       <c r="D18">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="E18">
-        <v>749</v>
+        <v>620</v>
       </c>
       <c r="F18">
-        <v>1353</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
-        <v>45256</v>
+        <v>45258</v>
       </c>
       <c r="C19">
-        <v>988</v>
+        <v>410</v>
       </c>
       <c r="D19">
-        <v>737</v>
+        <v>280</v>
       </c>
       <c r="E19">
-        <v>1317</v>
+        <v>666</v>
       </c>
       <c r="F19">
-        <v>3042</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
-        <v>45255</v>
+        <v>45257</v>
       </c>
       <c r="C20">
-        <v>1504</v>
+        <v>308</v>
       </c>
       <c r="D20">
-        <v>726</v>
+        <v>296</v>
       </c>
       <c r="E20">
-        <v>1560</v>
+        <v>749</v>
       </c>
       <c r="F20">
-        <v>3790</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
-        <v>45254</v>
+        <v>45256</v>
       </c>
       <c r="C21">
-        <v>843</v>
+        <v>988</v>
       </c>
       <c r="D21">
-        <v>434</v>
+        <v>737</v>
       </c>
       <c r="E21">
-        <v>916</v>
+        <v>1317</v>
       </c>
       <c r="F21">
-        <v>2193</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>45253</v>
+        <v>45255</v>
       </c>
       <c r="C22">
-        <v>381</v>
+        <v>1504</v>
       </c>
       <c r="D22">
-        <v>313</v>
+        <v>726</v>
       </c>
       <c r="E22">
-        <v>640</v>
+        <v>1560</v>
       </c>
       <c r="F22">
-        <v>1334</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="C23">
-        <v>413</v>
+        <v>843</v>
       </c>
       <c r="D23">
-        <v>296</v>
+        <v>434</v>
       </c>
       <c r="E23">
-        <v>545</v>
+        <v>916</v>
       </c>
       <c r="F23">
-        <v>1254</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
-        <v>45251</v>
+        <v>45253</v>
       </c>
       <c r="C24">
-        <v>251</v>
+        <v>381</v>
       </c>
       <c r="D24">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="E24">
-        <v>523</v>
+        <v>640</v>
       </c>
       <c r="F24">
-        <v>1020</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="C25">
-        <v>499</v>
+        <v>413</v>
       </c>
       <c r="D25">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="E25">
-        <v>679</v>
+        <v>545</v>
       </c>
       <c r="F25">
-        <v>1503</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1">
-        <v>45249</v>
+        <v>45251</v>
       </c>
       <c r="C26">
-        <v>1084</v>
+        <v>251</v>
       </c>
       <c r="D26">
-        <v>618</v>
+        <v>246</v>
       </c>
       <c r="E26">
-        <v>1139</v>
+        <v>523</v>
       </c>
       <c r="F26">
-        <v>2841</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1">
-        <v>45248</v>
+        <v>45250</v>
       </c>
       <c r="C27">
-        <v>2016</v>
+        <v>499</v>
       </c>
       <c r="D27">
-        <v>846</v>
+        <v>325</v>
       </c>
       <c r="E27">
-        <v>1594</v>
+        <v>679</v>
       </c>
       <c r="F27">
-        <v>4456</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>45247</v>
+        <v>45249</v>
       </c>
       <c r="C28">
-        <v>1157</v>
+        <v>1084</v>
       </c>
       <c r="D28">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="E28">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="F28">
-        <v>2899</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>45246</v>
+        <v>45248</v>
       </c>
       <c r="C29">
-        <v>452</v>
+        <v>2016</v>
       </c>
       <c r="D29">
-        <v>314</v>
+        <v>846</v>
       </c>
       <c r="E29">
-        <v>653</v>
+        <v>1594</v>
       </c>
       <c r="F29">
-        <v>1419</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1">
-        <v>45245</v>
+        <v>45247</v>
       </c>
       <c r="C30">
-        <v>745</v>
+        <v>1157</v>
       </c>
       <c r="D30">
-        <v>262</v>
+        <v>610</v>
       </c>
       <c r="E30">
-        <v>635</v>
+        <v>1132</v>
       </c>
       <c r="F30">
-        <v>1642</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1">
-        <v>45244</v>
+        <v>45246</v>
       </c>
       <c r="C31">
-        <v>131</v>
+        <v>452</v>
       </c>
       <c r="D31">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="E31">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="F31">
-        <v>700</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1">
-        <v>45243</v>
+        <v>45245</v>
       </c>
       <c r="C32">
-        <v>183</v>
+        <v>745</v>
       </c>
       <c r="D32">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="E32">
-        <v>583</v>
+        <v>635</v>
       </c>
       <c r="F32">
-        <v>1000</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
-        <v>45242</v>
+        <v>45244</v>
       </c>
       <c r="C33">
-        <v>1246</v>
+        <v>131</v>
       </c>
       <c r="D33">
-        <v>783</v>
+        <v>138</v>
       </c>
       <c r="E33">
-        <v>1234</v>
+        <v>431</v>
       </c>
       <c r="F33">
-        <v>3263</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1">
-        <v>45241</v>
+        <v>45243</v>
       </c>
       <c r="C34">
-        <v>1847</v>
+        <v>183</v>
       </c>
       <c r="D34">
-        <v>962</v>
+        <v>234</v>
       </c>
       <c r="E34">
-        <v>1737</v>
+        <v>583</v>
       </c>
       <c r="F34">
-        <v>4546</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1">
-        <v>45240</v>
+        <v>45242</v>
       </c>
       <c r="C35">
-        <v>1368</v>
+        <v>1246</v>
       </c>
       <c r="D35">
-        <v>671</v>
+        <v>783</v>
       </c>
       <c r="E35">
-        <v>1636</v>
+        <v>1234</v>
       </c>
       <c r="F35">
-        <v>3675</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
-        <v>45239</v>
+        <v>45241</v>
       </c>
       <c r="C36">
-        <v>218</v>
+        <v>1847</v>
       </c>
       <c r="D36">
-        <v>255</v>
+        <v>962</v>
       </c>
       <c r="E36">
-        <v>511</v>
+        <v>1737</v>
       </c>
       <c r="F36">
-        <v>984</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="C37">
-        <v>380</v>
+        <v>1368</v>
       </c>
       <c r="D37">
-        <v>200</v>
+        <v>671</v>
       </c>
       <c r="E37">
-        <v>594</v>
+        <v>1636</v>
       </c>
       <c r="F37">
-        <v>1174</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="C38">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D38">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="E38">
-        <v>399</v>
+        <v>511</v>
       </c>
       <c r="F38">
-        <v>831</v>
+        <v>984</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="C39">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="D39">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E39">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F39">
-        <v>1190</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1">
-        <v>45235</v>
+        <v>45237</v>
       </c>
       <c r="C40">
-        <v>984</v>
+        <v>232</v>
       </c>
       <c r="D40">
-        <v>496</v>
+        <v>200</v>
       </c>
       <c r="E40">
-        <v>1001</v>
+        <v>399</v>
       </c>
       <c r="F40">
-        <v>2481</v>
+        <v>831</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="C41">
-        <v>1666</v>
+        <v>336</v>
       </c>
       <c r="D41">
-        <v>642</v>
+        <v>250</v>
       </c>
       <c r="E41">
-        <v>1252</v>
+        <v>604</v>
       </c>
       <c r="F41">
-        <v>3560</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1">
-        <v>45233</v>
+        <v>45235</v>
       </c>
       <c r="C42">
-        <v>3192</v>
+        <v>984</v>
       </c>
       <c r="D42">
-        <v>743</v>
+        <v>496</v>
       </c>
       <c r="E42">
-        <v>1702</v>
+        <v>1001</v>
       </c>
       <c r="F42">
-        <v>5637</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1">
-        <v>45232</v>
+        <v>45234</v>
       </c>
       <c r="C43">
-        <v>2329</v>
+        <v>1666</v>
       </c>
       <c r="D43">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="E43">
-        <v>1512</v>
+        <v>1252</v>
       </c>
       <c r="F43">
-        <v>4415</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1">
-        <v>45231</v>
+        <v>45233</v>
       </c>
       <c r="C44">
-        <v>1427</v>
+        <v>3192</v>
       </c>
       <c r="D44">
-        <v>432</v>
+        <v>743</v>
       </c>
       <c r="E44">
-        <v>860</v>
+        <v>1702</v>
       </c>
       <c r="F44">
-        <v>2719</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45232</v>
+      </c>
+      <c r="C45">
+        <v>2329</v>
+      </c>
+      <c r="D45">
+        <v>574</v>
+      </c>
+      <c r="E45">
+        <v>1512</v>
+      </c>
+      <c r="F45">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45231</v>
+      </c>
+      <c r="C46">
+        <v>1427</v>
+      </c>
+      <c r="D46">
+        <v>432</v>
+      </c>
+      <c r="E46">
+        <v>860</v>
+      </c>
+      <c r="F46">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B47" s="1">
         <v>45230</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>881</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <v>287</v>
       </c>
-      <c r="E45">
+      <c r="E47">
         <v>774</v>
       </c>
-      <c r="F45">
+      <c r="F47">
         <v>1942</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45229</v>
+      </c>
+      <c r="C48">
+        <v>964</v>
+      </c>
+      <c r="D48">
+        <v>286</v>
+      </c>
+      <c r="E48">
+        <v>812</v>
+      </c>
+      <c r="F48">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45228</v>
+      </c>
+      <c r="C49">
+        <v>1247</v>
+      </c>
+      <c r="D49">
+        <v>469</v>
+      </c>
+      <c r="E49">
+        <v>1174</v>
+      </c>
+      <c r="F49">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C50">
+        <v>1448</v>
+      </c>
+      <c r="D50">
+        <v>530</v>
+      </c>
+      <c r="E50">
+        <v>1253</v>
+      </c>
+      <c r="F50">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45226</v>
+      </c>
+      <c r="C51">
+        <v>1374</v>
+      </c>
+      <c r="D51">
+        <v>364</v>
+      </c>
+      <c r="E51">
+        <v>1018</v>
+      </c>
+      <c r="F51">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45225</v>
+      </c>
+      <c r="C52">
+        <v>887</v>
+      </c>
+      <c r="D52">
+        <v>283</v>
+      </c>
+      <c r="E52">
+        <v>820</v>
+      </c>
+      <c r="F52">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45224</v>
+      </c>
+      <c r="C53">
+        <v>1165</v>
+      </c>
+      <c r="D53">
+        <v>208</v>
+      </c>
+      <c r="E53">
+        <v>662</v>
+      </c>
+      <c r="F53">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45223</v>
+      </c>
+      <c r="C54">
+        <v>676</v>
+      </c>
+      <c r="D54">
+        <v>195</v>
+      </c>
+      <c r="E54">
+        <v>569</v>
+      </c>
+      <c r="F54">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45222</v>
+      </c>
+      <c r="C55">
+        <v>539</v>
+      </c>
+      <c r="D55">
+        <v>222</v>
+      </c>
+      <c r="E55">
+        <v>639</v>
+      </c>
+      <c r="F55">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45221</v>
+      </c>
+      <c r="C56">
+        <v>1399</v>
+      </c>
+      <c r="D56">
+        <v>620</v>
+      </c>
+      <c r="E56">
+        <v>1208</v>
+      </c>
+      <c r="F56">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45220</v>
+      </c>
+      <c r="C57">
+        <v>1265</v>
+      </c>
+      <c r="D57">
+        <v>553</v>
+      </c>
+      <c r="E57">
+        <v>1296</v>
+      </c>
+      <c r="F57">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45219</v>
+      </c>
+      <c r="C58">
+        <v>1038</v>
+      </c>
+      <c r="D58">
+        <v>397</v>
+      </c>
+      <c r="E58">
+        <v>1029</v>
+      </c>
+      <c r="F58">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45218</v>
+      </c>
+      <c r="C59">
+        <v>316</v>
+      </c>
+      <c r="D59">
+        <v>232</v>
+      </c>
+      <c r="E59">
+        <v>650</v>
+      </c>
+      <c r="F59">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45217</v>
+      </c>
+      <c r="C60">
+        <v>597</v>
+      </c>
+      <c r="D60">
+        <v>195</v>
+      </c>
+      <c r="E60">
+        <v>551</v>
+      </c>
+      <c r="F60">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45216</v>
+      </c>
+      <c r="C61">
+        <v>346</v>
+      </c>
+      <c r="D61">
+        <v>151</v>
+      </c>
+      <c r="E61">
+        <v>462</v>
+      </c>
+      <c r="F61">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45215</v>
+      </c>
+      <c r="C62">
+        <v>406</v>
+      </c>
+      <c r="D62">
+        <v>222</v>
+      </c>
+      <c r="E62">
+        <v>651</v>
+      </c>
+      <c r="F62">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45214</v>
+      </c>
+      <c r="C63">
+        <v>979</v>
+      </c>
+      <c r="D63">
+        <v>459</v>
+      </c>
+      <c r="E63">
+        <v>901</v>
+      </c>
+      <c r="F63">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45213</v>
+      </c>
+      <c r="C64">
+        <v>1477</v>
+      </c>
+      <c r="D64">
+        <v>592</v>
+      </c>
+      <c r="E64">
+        <v>1309</v>
+      </c>
+      <c r="F64">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45212</v>
+      </c>
+      <c r="C65">
+        <v>855</v>
+      </c>
+      <c r="D65">
+        <v>305</v>
+      </c>
+      <c r="E65">
+        <v>919</v>
+      </c>
+      <c r="F65">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45211</v>
+      </c>
+      <c r="C66">
+        <v>396</v>
+      </c>
+      <c r="D66">
+        <v>241</v>
+      </c>
+      <c r="E66">
+        <v>615</v>
+      </c>
+      <c r="F66">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45210</v>
+      </c>
+      <c r="C67">
+        <v>645</v>
+      </c>
+      <c r="D67">
+        <v>225</v>
+      </c>
+      <c r="E67">
+        <v>475</v>
+      </c>
+      <c r="F67">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45209</v>
+      </c>
+      <c r="C68">
+        <v>416</v>
+      </c>
+      <c r="D68">
+        <v>247</v>
+      </c>
+      <c r="E68">
+        <v>473</v>
+      </c>
+      <c r="F68">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45208</v>
+      </c>
+      <c r="C69">
+        <v>271</v>
+      </c>
+      <c r="D69">
+        <v>232</v>
+      </c>
+      <c r="E69">
+        <v>528</v>
+      </c>
+      <c r="F69">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45207</v>
+      </c>
+      <c r="C70">
+        <v>1079</v>
+      </c>
+      <c r="D70">
+        <v>561</v>
+      </c>
+      <c r="E70">
+        <v>1035</v>
+      </c>
+      <c r="F70">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45206</v>
+      </c>
+      <c r="C71">
+        <v>1421</v>
+      </c>
+      <c r="D71">
+        <v>533</v>
+      </c>
+      <c r="E71">
+        <v>1086</v>
+      </c>
+      <c r="F71">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45205</v>
+      </c>
+      <c r="C72">
+        <v>655</v>
+      </c>
+      <c r="D72">
+        <v>343</v>
+      </c>
+      <c r="E72">
+        <v>717</v>
+      </c>
+      <c r="F72">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45204</v>
+      </c>
+      <c r="C73">
+        <v>443</v>
+      </c>
+      <c r="D73">
+        <v>211</v>
+      </c>
+      <c r="E73">
+        <v>485</v>
+      </c>
+      <c r="F73">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45203</v>
+      </c>
+      <c r="C74">
+        <v>522</v>
+      </c>
+      <c r="D74">
+        <v>222</v>
+      </c>
+      <c r="E74">
+        <v>543</v>
+      </c>
+      <c r="F74">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45202</v>
+      </c>
+      <c r="C75">
+        <v>400</v>
+      </c>
+      <c r="D75">
+        <v>222</v>
+      </c>
+      <c r="E75">
+        <v>489</v>
+      </c>
+      <c r="F75">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45201</v>
+      </c>
+      <c r="C76">
+        <v>434</v>
+      </c>
+      <c r="D76">
+        <v>263</v>
+      </c>
+      <c r="E76">
+        <v>545</v>
+      </c>
+      <c r="F76">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45200</v>
+      </c>
+      <c r="C77">
+        <v>1211</v>
+      </c>
+      <c r="D77">
+        <v>614</v>
+      </c>
+      <c r="E77">
+        <v>1099</v>
+      </c>
+      <c r="F77">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C78">
+        <v>1784</v>
+      </c>
+      <c r="D78">
+        <v>824</v>
+      </c>
+      <c r="E78">
+        <v>1490</v>
+      </c>
+      <c r="F78">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45198</v>
+      </c>
+      <c r="C79">
+        <v>1044</v>
+      </c>
+      <c r="D79">
+        <v>426</v>
+      </c>
+      <c r="E79">
+        <v>1100</v>
+      </c>
+      <c r="F79">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45197</v>
+      </c>
+      <c r="C80">
+        <v>609</v>
+      </c>
+      <c r="D80">
+        <v>398</v>
+      </c>
+      <c r="E80">
+        <v>1037</v>
+      </c>
+      <c r="F80">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45196</v>
+      </c>
+      <c r="C81">
+        <v>451</v>
+      </c>
+      <c r="D81">
+        <v>338</v>
+      </c>
+      <c r="E81">
+        <v>726</v>
+      </c>
+      <c r="F81">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45195</v>
+      </c>
+      <c r="C82">
+        <v>329</v>
+      </c>
+      <c r="D82">
+        <v>273</v>
+      </c>
+      <c r="E82">
+        <v>778</v>
+      </c>
+      <c r="F82">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45194</v>
+      </c>
+      <c r="C83">
+        <v>403</v>
+      </c>
+      <c r="D83">
+        <v>358</v>
+      </c>
+      <c r="E83">
+        <v>771</v>
+      </c>
+      <c r="F83">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45193</v>
+      </c>
+      <c r="C84">
+        <v>1336</v>
+      </c>
+      <c r="D84">
+        <v>617</v>
+      </c>
+      <c r="E84">
+        <v>1151</v>
+      </c>
+      <c r="F84">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C85">
+        <v>1696</v>
+      </c>
+      <c r="D85">
+        <v>786</v>
+      </c>
+      <c r="E85">
+        <v>1329</v>
+      </c>
+      <c r="F85">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45191</v>
+      </c>
+      <c r="C86">
+        <v>844</v>
+      </c>
+      <c r="D86">
+        <v>456</v>
+      </c>
+      <c r="E86">
+        <v>932</v>
+      </c>
+      <c r="F86">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45190</v>
+      </c>
+      <c r="C87">
+        <v>425</v>
+      </c>
+      <c r="D87">
+        <v>357</v>
+      </c>
+      <c r="E87">
+        <v>931</v>
+      </c>
+      <c r="F87">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45189</v>
+      </c>
+      <c r="C88">
+        <v>344</v>
+      </c>
+      <c r="D88">
+        <v>293</v>
+      </c>
+      <c r="E88">
+        <v>704</v>
+      </c>
+      <c r="F88">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45188</v>
+      </c>
+      <c r="C89">
+        <v>300</v>
+      </c>
+      <c r="D89">
+        <v>317</v>
+      </c>
+      <c r="E89">
+        <v>819</v>
+      </c>
+      <c r="F89">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C90">
+        <v>445</v>
+      </c>
+      <c r="D90">
+        <v>391</v>
+      </c>
+      <c r="E90">
+        <v>938</v>
+      </c>
+      <c r="F90">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45186</v>
+      </c>
+      <c r="C91">
+        <v>1621</v>
+      </c>
+      <c r="D91">
+        <v>780</v>
+      </c>
+      <c r="E91">
+        <v>1206</v>
+      </c>
+      <c r="F91">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C92">
+        <v>1524</v>
+      </c>
+      <c r="D92">
+        <v>705</v>
+      </c>
+      <c r="E92">
+        <v>1293</v>
+      </c>
+      <c r="F92">
+        <v>3522</v>
       </c>
     </row>
   </sheetData>

--- a/HKSdata.xlsx
+++ b/HKSdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalcityholdings-my.sharepoint.com/personal/dagmara_skonecka-piec_parkofpoland_com/Documents/Desktop/ALKmaterials/sem3 WebMining/WeatherApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PYTHON\WeatherApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F3F535EB-4D6B-4F95-AE95-EF09525391F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E033FCDE-85D8-46AE-A1CA-63671158EF41}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D58CF6-AB7C-469B-A9C7-F4A4133CDD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F047B9E8-A2E3-45D5-9803-8C9A01AD452E}"/>
+    <workbookView xWindow="-10830" yWindow="-16515" windowWidth="29040" windowHeight="15720" xr2:uid="{F047B9E8-A2E3-45D5-9803-8C9A01AD452E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="13">
   <si>
     <t>Visit Day</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4291EB-E202-43F3-861D-100B376D71AC}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,1821 +461,2161 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>45275</v>
+        <v>45293</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E2">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="F2">
-        <v>452</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>45274</v>
+        <v>45292</v>
       </c>
       <c r="C3">
-        <v>406</v>
+        <v>1422</v>
       </c>
       <c r="D3">
-        <v>353</v>
+        <v>727</v>
       </c>
       <c r="E3">
-        <v>656</v>
+        <v>1214</v>
       </c>
       <c r="F3">
-        <v>1415</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>45273</v>
+        <v>45291</v>
       </c>
       <c r="C4">
-        <v>420</v>
+        <v>2046</v>
       </c>
       <c r="D4">
-        <v>317</v>
+        <v>841</v>
       </c>
       <c r="E4">
-        <v>653</v>
+        <v>2009</v>
       </c>
       <c r="F4">
-        <v>1390</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>45272</v>
+        <v>45290</v>
       </c>
       <c r="C5">
-        <v>356</v>
+        <v>2843</v>
       </c>
       <c r="D5">
-        <v>263</v>
+        <v>1218</v>
       </c>
       <c r="E5">
-        <v>554</v>
+        <v>3362</v>
       </c>
       <c r="F5">
-        <v>1173</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>45271</v>
+        <v>45289</v>
       </c>
       <c r="C6">
-        <v>363</v>
+        <v>3624</v>
       </c>
       <c r="D6">
-        <v>337</v>
+        <v>1140</v>
       </c>
       <c r="E6">
-        <v>718</v>
+        <v>3221</v>
       </c>
       <c r="F6">
-        <v>1418</v>
+        <v>7985</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>45270</v>
+        <v>45288</v>
       </c>
       <c r="C7">
-        <v>931</v>
+        <v>3845</v>
       </c>
       <c r="D7">
-        <v>630</v>
+        <v>1283</v>
       </c>
       <c r="E7">
-        <v>1191</v>
+        <v>3122</v>
       </c>
       <c r="F7">
-        <v>2752</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>45269</v>
+        <v>45287</v>
       </c>
       <c r="C8">
-        <v>1343</v>
+        <v>2705</v>
       </c>
       <c r="D8">
-        <v>675</v>
+        <v>960</v>
       </c>
       <c r="E8">
-        <v>1643</v>
+        <v>2292</v>
       </c>
       <c r="F8">
-        <v>3661</v>
+        <v>5957</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>45268</v>
+        <v>45286</v>
       </c>
       <c r="C9">
-        <v>915</v>
+        <v>1700</v>
       </c>
       <c r="D9">
-        <v>497</v>
+        <v>823</v>
       </c>
       <c r="E9">
-        <v>1006</v>
+        <v>1403</v>
       </c>
       <c r="F9">
-        <v>2418</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>45267</v>
+        <v>45285</v>
       </c>
       <c r="C10">
-        <v>335</v>
+        <v>1131</v>
       </c>
       <c r="D10">
-        <v>259</v>
+        <v>589</v>
       </c>
       <c r="E10">
-        <v>635</v>
+        <v>1149</v>
       </c>
       <c r="F10">
-        <v>1229</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>45266</v>
+        <v>45283</v>
       </c>
       <c r="C11">
-        <v>552</v>
+        <v>638</v>
       </c>
       <c r="D11">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="E11">
-        <v>531</v>
+        <v>700</v>
       </c>
       <c r="F11">
-        <v>1318</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>45265</v>
+        <v>45282</v>
       </c>
       <c r="C12">
-        <v>332</v>
+        <v>644</v>
       </c>
       <c r="D12">
-        <v>257</v>
+        <v>349</v>
       </c>
       <c r="E12">
-        <v>541</v>
+        <v>767</v>
       </c>
       <c r="F12">
-        <v>1130</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>45264</v>
+        <v>45281</v>
       </c>
       <c r="C13">
-        <v>528</v>
+        <v>356</v>
       </c>
       <c r="D13">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="E13">
-        <v>694</v>
+        <v>748</v>
       </c>
       <c r="F13">
-        <v>1506</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>45263</v>
+        <v>45280</v>
       </c>
       <c r="C14">
-        <v>1130</v>
+        <v>459</v>
       </c>
       <c r="D14">
-        <v>631</v>
+        <v>333</v>
       </c>
       <c r="E14">
-        <v>1229</v>
+        <v>710</v>
       </c>
       <c r="F14">
-        <v>2990</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
-        <v>45262</v>
+        <v>45279</v>
       </c>
       <c r="C15">
-        <v>1559</v>
+        <v>298</v>
       </c>
       <c r="D15">
-        <v>802</v>
+        <v>199</v>
       </c>
       <c r="E15">
-        <v>1624</v>
+        <v>498</v>
       </c>
       <c r="F15">
-        <v>3985</v>
+        <v>995</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>45261</v>
+        <v>45278</v>
       </c>
       <c r="C16">
-        <v>753</v>
+        <v>507</v>
       </c>
       <c r="D16">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="E16">
-        <v>882</v>
+        <v>707</v>
       </c>
       <c r="F16">
-        <v>2035</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
-        <v>45260</v>
+        <v>45277</v>
       </c>
       <c r="C17">
-        <v>405</v>
+        <v>829</v>
       </c>
       <c r="D17">
-        <v>370</v>
+        <v>512</v>
       </c>
       <c r="E17">
-        <v>744</v>
+        <v>1215</v>
       </c>
       <c r="F17">
-        <v>1519</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>45259</v>
+        <v>45276</v>
       </c>
       <c r="C18">
-        <v>550</v>
+        <v>1148</v>
       </c>
       <c r="D18">
-        <v>346</v>
+        <v>628</v>
       </c>
       <c r="E18">
-        <v>620</v>
+        <v>1325</v>
       </c>
       <c r="F18">
-        <v>1516</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
-        <v>45258</v>
+        <v>45275</v>
       </c>
       <c r="C19">
-        <v>410</v>
+        <v>691</v>
       </c>
       <c r="D19">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="E19">
-        <v>666</v>
+        <v>905</v>
       </c>
       <c r="F19">
-        <v>1356</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1">
-        <v>45257</v>
+        <v>45274</v>
       </c>
       <c r="C20">
-        <v>308</v>
+        <v>406</v>
       </c>
       <c r="D20">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="E20">
-        <v>749</v>
+        <v>656</v>
       </c>
       <c r="F20">
-        <v>1353</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
-        <v>45256</v>
+        <v>45273</v>
       </c>
       <c r="C21">
-        <v>988</v>
+        <v>420</v>
       </c>
       <c r="D21">
-        <v>737</v>
+        <v>317</v>
       </c>
       <c r="E21">
-        <v>1317</v>
+        <v>653</v>
       </c>
       <c r="F21">
-        <v>3042</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
-        <v>45255</v>
+        <v>45272</v>
       </c>
       <c r="C22">
-        <v>1504</v>
+        <v>356</v>
       </c>
       <c r="D22">
-        <v>726</v>
+        <v>263</v>
       </c>
       <c r="E22">
-        <v>1560</v>
+        <v>554</v>
       </c>
       <c r="F22">
-        <v>3790</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
-        <v>45254</v>
+        <v>45271</v>
       </c>
       <c r="C23">
-        <v>843</v>
+        <v>363</v>
       </c>
       <c r="D23">
-        <v>434</v>
+        <v>337</v>
       </c>
       <c r="E23">
-        <v>916</v>
+        <v>718</v>
       </c>
       <c r="F23">
-        <v>2193</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
-        <v>45253</v>
+        <v>45270</v>
       </c>
       <c r="C24">
-        <v>381</v>
+        <v>931</v>
       </c>
       <c r="D24">
-        <v>313</v>
+        <v>630</v>
       </c>
       <c r="E24">
-        <v>640</v>
+        <v>1191</v>
       </c>
       <c r="F24">
-        <v>1334</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>45252</v>
+        <v>45269</v>
       </c>
       <c r="C25">
-        <v>413</v>
+        <v>1343</v>
       </c>
       <c r="D25">
-        <v>296</v>
+        <v>675</v>
       </c>
       <c r="E25">
-        <v>545</v>
+        <v>1643</v>
       </c>
       <c r="F25">
-        <v>1254</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1">
-        <v>45251</v>
+        <v>45268</v>
       </c>
       <c r="C26">
-        <v>251</v>
+        <v>915</v>
       </c>
       <c r="D26">
-        <v>246</v>
+        <v>497</v>
       </c>
       <c r="E26">
-        <v>523</v>
+        <v>1006</v>
       </c>
       <c r="F26">
-        <v>1020</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1">
-        <v>45250</v>
+        <v>45267</v>
       </c>
       <c r="C27">
-        <v>499</v>
+        <v>335</v>
       </c>
       <c r="D27">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="E27">
-        <v>679</v>
+        <v>635</v>
       </c>
       <c r="F27">
-        <v>1503</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1">
-        <v>45249</v>
+        <v>45266</v>
       </c>
       <c r="C28">
-        <v>1084</v>
+        <v>552</v>
       </c>
       <c r="D28">
-        <v>618</v>
+        <v>235</v>
       </c>
       <c r="E28">
-        <v>1139</v>
+        <v>531</v>
       </c>
       <c r="F28">
-        <v>2841</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>45248</v>
+        <v>45265</v>
       </c>
       <c r="C29">
-        <v>2016</v>
+        <v>332</v>
       </c>
       <c r="D29">
-        <v>846</v>
+        <v>257</v>
       </c>
       <c r="E29">
-        <v>1594</v>
+        <v>541</v>
       </c>
       <c r="F29">
-        <v>4456</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
-        <v>45247</v>
+        <v>45264</v>
       </c>
       <c r="C30">
-        <v>1157</v>
+        <v>528</v>
       </c>
       <c r="D30">
-        <v>610</v>
+        <v>284</v>
       </c>
       <c r="E30">
-        <v>1132</v>
+        <v>694</v>
       </c>
       <c r="F30">
-        <v>2899</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>45246</v>
+        <v>45263</v>
       </c>
       <c r="C31">
-        <v>452</v>
+        <v>1130</v>
       </c>
       <c r="D31">
-        <v>314</v>
+        <v>631</v>
       </c>
       <c r="E31">
-        <v>653</v>
+        <v>1229</v>
       </c>
       <c r="F31">
-        <v>1419</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>45245</v>
+        <v>45262</v>
       </c>
       <c r="C32">
-        <v>745</v>
+        <v>1559</v>
       </c>
       <c r="D32">
-        <v>262</v>
+        <v>802</v>
       </c>
       <c r="E32">
-        <v>635</v>
+        <v>1624</v>
       </c>
       <c r="F32">
-        <v>1642</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>45244</v>
+        <v>45261</v>
       </c>
       <c r="C33">
-        <v>131</v>
+        <v>753</v>
       </c>
       <c r="D33">
-        <v>138</v>
+        <v>400</v>
       </c>
       <c r="E33">
-        <v>431</v>
+        <v>882</v>
       </c>
       <c r="F33">
-        <v>700</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>45243</v>
+        <v>45260</v>
       </c>
       <c r="C34">
-        <v>183</v>
+        <v>405</v>
       </c>
       <c r="D34">
-        <v>234</v>
+        <v>370</v>
       </c>
       <c r="E34">
-        <v>583</v>
+        <v>744</v>
       </c>
       <c r="F34">
-        <v>1000</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1">
-        <v>45242</v>
+        <v>45259</v>
       </c>
       <c r="C35">
-        <v>1246</v>
+        <v>550</v>
       </c>
       <c r="D35">
-        <v>783</v>
+        <v>346</v>
       </c>
       <c r="E35">
-        <v>1234</v>
+        <v>620</v>
       </c>
       <c r="F35">
-        <v>3263</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1">
-        <v>45241</v>
+        <v>45258</v>
       </c>
       <c r="C36">
-        <v>1847</v>
+        <v>410</v>
       </c>
       <c r="D36">
-        <v>962</v>
+        <v>280</v>
       </c>
       <c r="E36">
-        <v>1737</v>
+        <v>666</v>
       </c>
       <c r="F36">
-        <v>4546</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1">
-        <v>45240</v>
+        <v>45257</v>
       </c>
       <c r="C37">
-        <v>1368</v>
+        <v>308</v>
       </c>
       <c r="D37">
-        <v>671</v>
+        <v>296</v>
       </c>
       <c r="E37">
-        <v>1636</v>
+        <v>749</v>
       </c>
       <c r="F37">
-        <v>3675</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1">
-        <v>45239</v>
+        <v>45256</v>
       </c>
       <c r="C38">
-        <v>218</v>
+        <v>988</v>
       </c>
       <c r="D38">
-        <v>255</v>
+        <v>737</v>
       </c>
       <c r="E38">
-        <v>511</v>
+        <v>1317</v>
       </c>
       <c r="F38">
-        <v>984</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1">
-        <v>45238</v>
+        <v>45255</v>
       </c>
       <c r="C39">
-        <v>380</v>
+        <v>1504</v>
       </c>
       <c r="D39">
-        <v>200</v>
+        <v>726</v>
       </c>
       <c r="E39">
-        <v>594</v>
+        <v>1560</v>
       </c>
       <c r="F39">
-        <v>1174</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1">
-        <v>45237</v>
+        <v>45254</v>
       </c>
       <c r="C40">
-        <v>232</v>
+        <v>843</v>
       </c>
       <c r="D40">
-        <v>200</v>
+        <v>434</v>
       </c>
       <c r="E40">
-        <v>399</v>
+        <v>916</v>
       </c>
       <c r="F40">
-        <v>831</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1">
-        <v>45236</v>
+        <v>45253</v>
       </c>
       <c r="C41">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="D41">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="E41">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="F41">
-        <v>1190</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1">
-        <v>45235</v>
+        <v>45252</v>
       </c>
       <c r="C42">
-        <v>984</v>
+        <v>413</v>
       </c>
       <c r="D42">
-        <v>496</v>
+        <v>296</v>
       </c>
       <c r="E42">
-        <v>1001</v>
+        <v>545</v>
       </c>
       <c r="F42">
-        <v>2481</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>45234</v>
+        <v>45251</v>
       </c>
       <c r="C43">
-        <v>1666</v>
+        <v>251</v>
       </c>
       <c r="D43">
-        <v>642</v>
+        <v>246</v>
       </c>
       <c r="E43">
-        <v>1252</v>
+        <v>523</v>
       </c>
       <c r="F43">
-        <v>3560</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
-        <v>45233</v>
+        <v>45250</v>
       </c>
       <c r="C44">
-        <v>3192</v>
+        <v>499</v>
       </c>
       <c r="D44">
-        <v>743</v>
+        <v>325</v>
       </c>
       <c r="E44">
-        <v>1702</v>
+        <v>679</v>
       </c>
       <c r="F44">
-        <v>5637</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1">
-        <v>45232</v>
+        <v>45249</v>
       </c>
       <c r="C45">
-        <v>2329</v>
+        <v>1084</v>
       </c>
       <c r="D45">
-        <v>574</v>
+        <v>618</v>
       </c>
       <c r="E45">
-        <v>1512</v>
+        <v>1139</v>
       </c>
       <c r="F45">
-        <v>4415</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1">
-        <v>45231</v>
+        <v>45248</v>
       </c>
       <c r="C46">
-        <v>1427</v>
+        <v>2016</v>
       </c>
       <c r="D46">
-        <v>432</v>
+        <v>846</v>
       </c>
       <c r="E46">
-        <v>860</v>
+        <v>1594</v>
       </c>
       <c r="F46">
-        <v>2719</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1">
-        <v>45230</v>
+        <v>45247</v>
       </c>
       <c r="C47">
-        <v>881</v>
+        <v>1157</v>
       </c>
       <c r="D47">
-        <v>287</v>
+        <v>610</v>
       </c>
       <c r="E47">
-        <v>774</v>
+        <v>1132</v>
       </c>
       <c r="F47">
-        <v>1942</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1">
-        <v>45229</v>
+        <v>45246</v>
       </c>
       <c r="C48">
-        <v>964</v>
+        <v>452</v>
       </c>
       <c r="D48">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="E48">
-        <v>812</v>
+        <v>653</v>
       </c>
       <c r="F48">
-        <v>2062</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>45228</v>
+        <v>45245</v>
       </c>
       <c r="C49">
-        <v>1247</v>
+        <v>745</v>
       </c>
       <c r="D49">
-        <v>469</v>
+        <v>262</v>
       </c>
       <c r="E49">
-        <v>1174</v>
+        <v>635</v>
       </c>
       <c r="F49">
-        <v>2890</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>45227</v>
+        <v>45244</v>
       </c>
       <c r="C50">
-        <v>1448</v>
+        <v>131</v>
       </c>
       <c r="D50">
-        <v>530</v>
+        <v>138</v>
       </c>
       <c r="E50">
-        <v>1253</v>
+        <v>431</v>
       </c>
       <c r="F50">
-        <v>3231</v>
+        <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1">
-        <v>45226</v>
+        <v>45243</v>
       </c>
       <c r="C51">
-        <v>1374</v>
+        <v>183</v>
       </c>
       <c r="D51">
-        <v>364</v>
+        <v>234</v>
       </c>
       <c r="E51">
-        <v>1018</v>
+        <v>583</v>
       </c>
       <c r="F51">
-        <v>2756</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>45225</v>
+        <v>45242</v>
       </c>
       <c r="C52">
-        <v>887</v>
+        <v>1246</v>
       </c>
       <c r="D52">
-        <v>283</v>
+        <v>783</v>
       </c>
       <c r="E52">
-        <v>820</v>
+        <v>1234</v>
       </c>
       <c r="F52">
-        <v>1990</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>45224</v>
+        <v>45241</v>
       </c>
       <c r="C53">
-        <v>1165</v>
+        <v>1847</v>
       </c>
       <c r="D53">
-        <v>208</v>
+        <v>962</v>
       </c>
       <c r="E53">
-        <v>662</v>
+        <v>1737</v>
       </c>
       <c r="F53">
-        <v>2035</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>45223</v>
+        <v>45240</v>
       </c>
       <c r="C54">
-        <v>676</v>
+        <v>1368</v>
       </c>
       <c r="D54">
-        <v>195</v>
+        <v>671</v>
       </c>
       <c r="E54">
-        <v>569</v>
+        <v>1636</v>
       </c>
       <c r="F54">
-        <v>1440</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B55" s="1">
-        <v>45222</v>
+        <v>45239</v>
       </c>
       <c r="C55">
-        <v>539</v>
+        <v>218</v>
       </c>
       <c r="D55">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="E55">
-        <v>639</v>
+        <v>511</v>
       </c>
       <c r="F55">
-        <v>1400</v>
+        <v>984</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1">
-        <v>45221</v>
+        <v>45238</v>
       </c>
       <c r="C56">
-        <v>1399</v>
+        <v>380</v>
       </c>
       <c r="D56">
-        <v>620</v>
+        <v>200</v>
       </c>
       <c r="E56">
-        <v>1208</v>
+        <v>594</v>
       </c>
       <c r="F56">
-        <v>3227</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B57" s="1">
-        <v>45220</v>
+        <v>45237</v>
       </c>
       <c r="C57">
-        <v>1265</v>
+        <v>232</v>
       </c>
       <c r="D57">
-        <v>553</v>
+        <v>200</v>
       </c>
       <c r="E57">
-        <v>1296</v>
+        <v>399</v>
       </c>
       <c r="F57">
-        <v>3114</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B58" s="1">
-        <v>45219</v>
+        <v>45236</v>
       </c>
       <c r="C58">
-        <v>1038</v>
+        <v>336</v>
       </c>
       <c r="D58">
-        <v>397</v>
+        <v>250</v>
       </c>
       <c r="E58">
-        <v>1029</v>
+        <v>604</v>
       </c>
       <c r="F58">
-        <v>2464</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1">
-        <v>45218</v>
+        <v>45235</v>
       </c>
       <c r="C59">
-        <v>316</v>
+        <v>984</v>
       </c>
       <c r="D59">
-        <v>232</v>
+        <v>496</v>
       </c>
       <c r="E59">
-        <v>650</v>
+        <v>1001</v>
       </c>
       <c r="F59">
-        <v>1198</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B60" s="1">
-        <v>45217</v>
+        <v>45234</v>
       </c>
       <c r="C60">
-        <v>597</v>
+        <v>1666</v>
       </c>
       <c r="D60">
-        <v>195</v>
+        <v>642</v>
       </c>
       <c r="E60">
-        <v>551</v>
+        <v>1252</v>
       </c>
       <c r="F60">
-        <v>1343</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B61" s="1">
-        <v>45216</v>
+        <v>45233</v>
       </c>
       <c r="C61">
-        <v>346</v>
+        <v>3192</v>
       </c>
       <c r="D61">
-        <v>151</v>
+        <v>743</v>
       </c>
       <c r="E61">
-        <v>462</v>
+        <v>1702</v>
       </c>
       <c r="F61">
-        <v>959</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B62" s="1">
-        <v>45215</v>
+        <v>45232</v>
       </c>
       <c r="C62">
-        <v>406</v>
+        <v>2329</v>
       </c>
       <c r="D62">
-        <v>222</v>
+        <v>574</v>
       </c>
       <c r="E62">
-        <v>651</v>
+        <v>1512</v>
       </c>
       <c r="F62">
-        <v>1279</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1">
-        <v>45214</v>
+        <v>45231</v>
       </c>
       <c r="C63">
-        <v>979</v>
+        <v>1427</v>
       </c>
       <c r="D63">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="E63">
-        <v>901</v>
+        <v>860</v>
       </c>
       <c r="F63">
-        <v>2339</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B64" s="1">
-        <v>45213</v>
+        <v>45230</v>
       </c>
       <c r="C64">
-        <v>1477</v>
+        <v>881</v>
       </c>
       <c r="D64">
-        <v>592</v>
+        <v>287</v>
       </c>
       <c r="E64">
-        <v>1309</v>
+        <v>774</v>
       </c>
       <c r="F64">
-        <v>3378</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B65" s="1">
-        <v>45212</v>
+        <v>45229</v>
       </c>
       <c r="C65">
-        <v>855</v>
+        <v>964</v>
       </c>
       <c r="D65">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E65">
-        <v>919</v>
+        <v>812</v>
       </c>
       <c r="F65">
-        <v>2079</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1">
-        <v>45211</v>
+        <v>45228</v>
       </c>
       <c r="C66">
-        <v>396</v>
+        <v>1247</v>
       </c>
       <c r="D66">
-        <v>241</v>
+        <v>469</v>
       </c>
       <c r="E66">
-        <v>615</v>
+        <v>1174</v>
       </c>
       <c r="F66">
-        <v>1252</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1">
-        <v>45210</v>
+        <v>45227</v>
       </c>
       <c r="C67">
-        <v>645</v>
+        <v>1448</v>
       </c>
       <c r="D67">
-        <v>225</v>
+        <v>530</v>
       </c>
       <c r="E67">
-        <v>475</v>
+        <v>1253</v>
       </c>
       <c r="F67">
-        <v>1345</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B68" s="1">
-        <v>45209</v>
+        <v>45226</v>
       </c>
       <c r="C68">
-        <v>416</v>
+        <v>1374</v>
       </c>
       <c r="D68">
-        <v>247</v>
+        <v>364</v>
       </c>
       <c r="E68">
-        <v>473</v>
+        <v>1018</v>
       </c>
       <c r="F68">
-        <v>1136</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1">
-        <v>45208</v>
+        <v>45225</v>
       </c>
       <c r="C69">
-        <v>271</v>
+        <v>887</v>
       </c>
       <c r="D69">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="E69">
-        <v>528</v>
+        <v>820</v>
       </c>
       <c r="F69">
-        <v>1031</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B70" s="1">
-        <v>45207</v>
+        <v>45224</v>
       </c>
       <c r="C70">
-        <v>1079</v>
+        <v>1165</v>
       </c>
       <c r="D70">
-        <v>561</v>
+        <v>208</v>
       </c>
       <c r="E70">
-        <v>1035</v>
+        <v>662</v>
       </c>
       <c r="F70">
-        <v>2675</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B71" s="1">
-        <v>45206</v>
+        <v>45223</v>
       </c>
       <c r="C71">
-        <v>1421</v>
+        <v>676</v>
       </c>
       <c r="D71">
-        <v>533</v>
+        <v>195</v>
       </c>
       <c r="E71">
-        <v>1086</v>
+        <v>569</v>
       </c>
       <c r="F71">
-        <v>3040</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1">
-        <v>45205</v>
+        <v>45222</v>
       </c>
       <c r="C72">
-        <v>655</v>
+        <v>539</v>
       </c>
       <c r="D72">
-        <v>343</v>
+        <v>222</v>
       </c>
       <c r="E72">
-        <v>717</v>
+        <v>639</v>
       </c>
       <c r="F72">
-        <v>1715</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1">
-        <v>45204</v>
+        <v>45221</v>
       </c>
       <c r="C73">
-        <v>443</v>
+        <v>1399</v>
       </c>
       <c r="D73">
-        <v>211</v>
+        <v>620</v>
       </c>
       <c r="E73">
-        <v>485</v>
+        <v>1208</v>
       </c>
       <c r="F73">
-        <v>1139</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="C74">
-        <v>522</v>
+        <v>1265</v>
       </c>
       <c r="D74">
-        <v>222</v>
+        <v>553</v>
       </c>
       <c r="E74">
-        <v>543</v>
+        <v>1296</v>
       </c>
       <c r="F74">
-        <v>1287</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1">
-        <v>45202</v>
+        <v>45219</v>
       </c>
       <c r="C75">
-        <v>400</v>
+        <v>1038</v>
       </c>
       <c r="D75">
-        <v>222</v>
+        <v>397</v>
       </c>
       <c r="E75">
-        <v>489</v>
+        <v>1029</v>
       </c>
       <c r="F75">
-        <v>1111</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B76" s="1">
-        <v>45201</v>
+        <v>45218</v>
       </c>
       <c r="C76">
-        <v>434</v>
+        <v>316</v>
       </c>
       <c r="D76">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="E76">
-        <v>545</v>
+        <v>650</v>
       </c>
       <c r="F76">
-        <v>1242</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1">
-        <v>45200</v>
+        <v>45217</v>
       </c>
       <c r="C77">
-        <v>1211</v>
+        <v>597</v>
       </c>
       <c r="D77">
-        <v>614</v>
+        <v>195</v>
       </c>
       <c r="E77">
-        <v>1099</v>
+        <v>551</v>
       </c>
       <c r="F77">
-        <v>2924</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B78" s="1">
-        <v>45199</v>
+        <v>45216</v>
       </c>
       <c r="C78">
-        <v>1784</v>
+        <v>346</v>
       </c>
       <c r="D78">
-        <v>824</v>
+        <v>151</v>
       </c>
       <c r="E78">
-        <v>1490</v>
+        <v>462</v>
       </c>
       <c r="F78">
-        <v>4098</v>
+        <v>959</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B79" s="1">
-        <v>45198</v>
+        <v>45215</v>
       </c>
       <c r="C79">
-        <v>1044</v>
+        <v>406</v>
       </c>
       <c r="D79">
-        <v>426</v>
+        <v>222</v>
       </c>
       <c r="E79">
-        <v>1100</v>
+        <v>651</v>
       </c>
       <c r="F79">
-        <v>2570</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B80" s="1">
-        <v>45197</v>
+        <v>45214</v>
       </c>
       <c r="C80">
-        <v>609</v>
+        <v>979</v>
       </c>
       <c r="D80">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="E80">
-        <v>1037</v>
+        <v>901</v>
       </c>
       <c r="F80">
-        <v>2044</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B81" s="1">
-        <v>45196</v>
+        <v>45213</v>
       </c>
       <c r="C81">
-        <v>451</v>
+        <v>1477</v>
       </c>
       <c r="D81">
-        <v>338</v>
+        <v>592</v>
       </c>
       <c r="E81">
-        <v>726</v>
+        <v>1309</v>
       </c>
       <c r="F81">
-        <v>1515</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B82" s="1">
-        <v>45195</v>
+        <v>45212</v>
       </c>
       <c r="C82">
-        <v>329</v>
+        <v>855</v>
       </c>
       <c r="D82">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="E82">
-        <v>778</v>
+        <v>919</v>
       </c>
       <c r="F82">
-        <v>1380</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B83" s="1">
-        <v>45194</v>
+        <v>45211</v>
       </c>
       <c r="C83">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D83">
-        <v>358</v>
+        <v>241</v>
       </c>
       <c r="E83">
-        <v>771</v>
+        <v>615</v>
       </c>
       <c r="F83">
-        <v>1532</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B84" s="1">
-        <v>45193</v>
+        <v>45210</v>
       </c>
       <c r="C84">
-        <v>1336</v>
+        <v>645</v>
       </c>
       <c r="D84">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="E84">
-        <v>1151</v>
+        <v>475</v>
       </c>
       <c r="F84">
-        <v>3104</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1">
-        <v>45192</v>
+        <v>45209</v>
       </c>
       <c r="C85">
-        <v>1696</v>
+        <v>416</v>
       </c>
       <c r="D85">
-        <v>786</v>
+        <v>247</v>
       </c>
       <c r="E85">
-        <v>1329</v>
+        <v>473</v>
       </c>
       <c r="F85">
-        <v>3811</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B86" s="1">
-        <v>45191</v>
+        <v>45208</v>
       </c>
       <c r="C86">
-        <v>844</v>
+        <v>271</v>
       </c>
       <c r="D86">
-        <v>456</v>
+        <v>232</v>
       </c>
       <c r="E86">
-        <v>932</v>
+        <v>528</v>
       </c>
       <c r="F86">
-        <v>2232</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B87" s="1">
-        <v>45190</v>
+        <v>45207</v>
       </c>
       <c r="C87">
-        <v>425</v>
+        <v>1079</v>
       </c>
       <c r="D87">
-        <v>357</v>
+        <v>561</v>
       </c>
       <c r="E87">
-        <v>931</v>
+        <v>1035</v>
       </c>
       <c r="F87">
-        <v>1713</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B88" s="1">
-        <v>45189</v>
+        <v>45206</v>
       </c>
       <c r="C88">
-        <v>344</v>
+        <v>1421</v>
       </c>
       <c r="D88">
-        <v>293</v>
+        <v>533</v>
       </c>
       <c r="E88">
-        <v>704</v>
+        <v>1086</v>
       </c>
       <c r="F88">
-        <v>1341</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B89" s="1">
-        <v>45188</v>
+        <v>45205</v>
       </c>
       <c r="C89">
-        <v>300</v>
+        <v>655</v>
       </c>
       <c r="D89">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="E89">
-        <v>819</v>
+        <v>717</v>
       </c>
       <c r="F89">
-        <v>1436</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B90" s="1">
-        <v>45187</v>
+        <v>45204</v>
       </c>
       <c r="C90">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D90">
-        <v>391</v>
+        <v>211</v>
       </c>
       <c r="E90">
-        <v>938</v>
+        <v>485</v>
       </c>
       <c r="F90">
-        <v>1774</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B91" s="1">
-        <v>45186</v>
+        <v>45203</v>
       </c>
       <c r="C91">
-        <v>1621</v>
+        <v>522</v>
       </c>
       <c r="D91">
-        <v>780</v>
+        <v>222</v>
       </c>
       <c r="E91">
-        <v>1206</v>
+        <v>543</v>
       </c>
       <c r="F91">
-        <v>3607</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45202</v>
+      </c>
+      <c r="C92">
+        <v>400</v>
+      </c>
+      <c r="D92">
+        <v>222</v>
+      </c>
+      <c r="E92">
+        <v>489</v>
+      </c>
+      <c r="F92">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45201</v>
+      </c>
+      <c r="C93">
+        <v>434</v>
+      </c>
+      <c r="D93">
+        <v>263</v>
+      </c>
+      <c r="E93">
+        <v>545</v>
+      </c>
+      <c r="F93">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45200</v>
+      </c>
+      <c r="C94">
+        <v>1211</v>
+      </c>
+      <c r="D94">
+        <v>614</v>
+      </c>
+      <c r="E94">
+        <v>1099</v>
+      </c>
+      <c r="F94">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B95" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C95">
+        <v>1784</v>
+      </c>
+      <c r="D95">
+        <v>824</v>
+      </c>
+      <c r="E95">
+        <v>1490</v>
+      </c>
+      <c r="F95">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45198</v>
+      </c>
+      <c r="C96">
+        <v>1044</v>
+      </c>
+      <c r="D96">
+        <v>426</v>
+      </c>
+      <c r="E96">
+        <v>1100</v>
+      </c>
+      <c r="F96">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45197</v>
+      </c>
+      <c r="C97">
+        <v>609</v>
+      </c>
+      <c r="D97">
+        <v>398</v>
+      </c>
+      <c r="E97">
+        <v>1037</v>
+      </c>
+      <c r="F97">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45196</v>
+      </c>
+      <c r="C98">
+        <v>451</v>
+      </c>
+      <c r="D98">
+        <v>338</v>
+      </c>
+      <c r="E98">
+        <v>726</v>
+      </c>
+      <c r="F98">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45195</v>
+      </c>
+      <c r="C99">
+        <v>329</v>
+      </c>
+      <c r="D99">
+        <v>273</v>
+      </c>
+      <c r="E99">
+        <v>778</v>
+      </c>
+      <c r="F99">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45194</v>
+      </c>
+      <c r="C100">
+        <v>403</v>
+      </c>
+      <c r="D100">
+        <v>358</v>
+      </c>
+      <c r="E100">
+        <v>771</v>
+      </c>
+      <c r="F100">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45193</v>
+      </c>
+      <c r="C101">
+        <v>1336</v>
+      </c>
+      <c r="D101">
+        <v>617</v>
+      </c>
+      <c r="E101">
+        <v>1151</v>
+      </c>
+      <c r="F101">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C102">
+        <v>1696</v>
+      </c>
+      <c r="D102">
+        <v>786</v>
+      </c>
+      <c r="E102">
+        <v>1329</v>
+      </c>
+      <c r="F102">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45191</v>
+      </c>
+      <c r="C103">
+        <v>844</v>
+      </c>
+      <c r="D103">
+        <v>456</v>
+      </c>
+      <c r="E103">
+        <v>932</v>
+      </c>
+      <c r="F103">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45190</v>
+      </c>
+      <c r="C104">
+        <v>425</v>
+      </c>
+      <c r="D104">
+        <v>357</v>
+      </c>
+      <c r="E104">
+        <v>931</v>
+      </c>
+      <c r="F104">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45189</v>
+      </c>
+      <c r="C105">
+        <v>344</v>
+      </c>
+      <c r="D105">
+        <v>293</v>
+      </c>
+      <c r="E105">
+        <v>704</v>
+      </c>
+      <c r="F105">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45188</v>
+      </c>
+      <c r="C106">
+        <v>300</v>
+      </c>
+      <c r="D106">
+        <v>317</v>
+      </c>
+      <c r="E106">
+        <v>819</v>
+      </c>
+      <c r="F106">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C107">
+        <v>445</v>
+      </c>
+      <c r="D107">
+        <v>391</v>
+      </c>
+      <c r="E107">
+        <v>938</v>
+      </c>
+      <c r="F107">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45186</v>
+      </c>
+      <c r="C108">
+        <v>1621</v>
+      </c>
+      <c r="D108">
+        <v>780</v>
+      </c>
+      <c r="E108">
+        <v>1206</v>
+      </c>
+      <c r="F108">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1">
         <v>45185</v>
       </c>
-      <c r="C92">
+      <c r="C109">
         <v>1524</v>
       </c>
-      <c r="D92">
+      <c r="D109">
         <v>705</v>
       </c>
-      <c r="E92">
+      <c r="E109">
         <v>1293</v>
       </c>
-      <c r="F92">
+      <c r="F109">
         <v>3522</v>
       </c>
     </row>

--- a/HKSdata.xlsx
+++ b/HKSdata.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PYTHON\WeatherApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D58CF6-AB7C-469B-A9C7-F4A4133CDD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9B8FF2-589F-44AF-9602-C9535FDB7FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10830" yWindow="-16515" windowWidth="29040" windowHeight="15720" xr2:uid="{F047B9E8-A2E3-45D5-9803-8C9A01AD452E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="13">
   <si>
     <t>Visit Day</t>
   </si>
@@ -427,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4291EB-E202-43F3-861D-100B376D71AC}">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,2165 +462,2644 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>45293</v>
+        <v>45303</v>
       </c>
       <c r="C2">
-        <v>193</v>
+        <v>534</v>
       </c>
       <c r="D2">
-        <v>163</v>
+        <v>384</v>
       </c>
       <c r="E2">
-        <v>265</v>
+        <v>507</v>
       </c>
       <c r="F2">
-        <v>621</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>45292</v>
+        <v>45302</v>
       </c>
       <c r="C3">
-        <v>1422</v>
+        <v>457</v>
       </c>
       <c r="D3">
-        <v>727</v>
+        <v>390</v>
       </c>
       <c r="E3">
-        <v>1214</v>
+        <v>670</v>
       </c>
       <c r="F3">
-        <v>3363</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>45291</v>
+        <v>45301</v>
       </c>
       <c r="C4">
-        <v>2046</v>
+        <v>343</v>
       </c>
       <c r="D4">
-        <v>841</v>
+        <v>340</v>
       </c>
       <c r="E4">
-        <v>2009</v>
+        <v>467</v>
       </c>
       <c r="F4">
-        <v>4896</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>45290</v>
+        <v>45300</v>
       </c>
       <c r="C5">
-        <v>2843</v>
+        <v>318</v>
       </c>
       <c r="D5">
-        <v>1218</v>
+        <v>324</v>
       </c>
       <c r="E5">
-        <v>3362</v>
+        <v>456</v>
       </c>
       <c r="F5">
-        <v>7423</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>45289</v>
+        <v>45299</v>
       </c>
       <c r="C6">
-        <v>3624</v>
+        <v>431</v>
       </c>
       <c r="D6">
-        <v>1140</v>
+        <v>345</v>
       </c>
       <c r="E6">
-        <v>3221</v>
+        <v>569</v>
       </c>
       <c r="F6">
-        <v>7985</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>45288</v>
+        <v>45298</v>
       </c>
       <c r="C7">
-        <v>3845</v>
+        <v>935</v>
       </c>
       <c r="D7">
-        <v>1283</v>
+        <v>717</v>
       </c>
       <c r="E7">
-        <v>3122</v>
+        <v>902</v>
       </c>
       <c r="F7">
-        <v>8250</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>45287</v>
+        <v>45297</v>
       </c>
       <c r="C8">
-        <v>2705</v>
+        <v>1514</v>
       </c>
       <c r="D8">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E8">
-        <v>2292</v>
+        <v>1428</v>
       </c>
       <c r="F8">
-        <v>5957</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>45286</v>
+        <v>45296</v>
       </c>
       <c r="C9">
-        <v>1700</v>
+        <v>1042</v>
       </c>
       <c r="D9">
-        <v>823</v>
+        <v>716</v>
       </c>
       <c r="E9">
-        <v>1403</v>
+        <v>1118</v>
       </c>
       <c r="F9">
-        <v>3926</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>45285</v>
+        <v>45295</v>
       </c>
       <c r="C10">
-        <v>1131</v>
+        <v>958</v>
       </c>
       <c r="D10">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E10">
-        <v>1149</v>
+        <v>876</v>
       </c>
       <c r="F10">
-        <v>2869</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>45283</v>
+        <v>45294</v>
       </c>
       <c r="C11">
-        <v>638</v>
+        <v>1068</v>
       </c>
       <c r="D11">
-        <v>268</v>
+        <v>581</v>
       </c>
       <c r="E11">
-        <v>700</v>
+        <v>863</v>
       </c>
       <c r="F11">
-        <v>1606</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>45282</v>
+        <v>45293</v>
       </c>
       <c r="C12">
-        <v>644</v>
+        <v>1175</v>
       </c>
       <c r="D12">
-        <v>349</v>
+        <v>827</v>
       </c>
       <c r="E12">
-        <v>767</v>
+        <v>1295</v>
       </c>
       <c r="F12">
-        <v>1760</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>45281</v>
+        <v>45292</v>
       </c>
       <c r="C13">
-        <v>356</v>
+        <v>1422</v>
       </c>
       <c r="D13">
-        <v>307</v>
+        <v>727</v>
       </c>
       <c r="E13">
-        <v>748</v>
+        <v>1214</v>
       </c>
       <c r="F13">
-        <v>1411</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>45280</v>
+        <v>45291</v>
       </c>
       <c r="C14">
-        <v>459</v>
+        <v>2046</v>
       </c>
       <c r="D14">
-        <v>333</v>
+        <v>841</v>
       </c>
       <c r="E14">
-        <v>710</v>
+        <v>2009</v>
       </c>
       <c r="F14">
-        <v>1502</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
-        <v>45279</v>
+        <v>45290</v>
       </c>
       <c r="C15">
-        <v>298</v>
+        <v>2843</v>
       </c>
       <c r="D15">
-        <v>199</v>
+        <v>1218</v>
       </c>
       <c r="E15">
-        <v>498</v>
+        <v>3362</v>
       </c>
       <c r="F15">
-        <v>995</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
-        <v>45278</v>
+        <v>45289</v>
       </c>
       <c r="C16">
-        <v>507</v>
+        <v>3624</v>
       </c>
       <c r="D16">
-        <v>343</v>
+        <v>1140</v>
       </c>
       <c r="E16">
-        <v>707</v>
+        <v>3221</v>
       </c>
       <c r="F16">
-        <v>1557</v>
+        <v>7985</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
-        <v>45277</v>
+        <v>45288</v>
       </c>
       <c r="C17">
-        <v>829</v>
+        <v>3845</v>
       </c>
       <c r="D17">
-        <v>512</v>
+        <v>1283</v>
       </c>
       <c r="E17">
-        <v>1215</v>
+        <v>3122</v>
       </c>
       <c r="F17">
-        <v>2556</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
-        <v>45276</v>
+        <v>45287</v>
       </c>
       <c r="C18">
-        <v>1148</v>
+        <v>2705</v>
       </c>
       <c r="D18">
-        <v>628</v>
+        <v>960</v>
       </c>
       <c r="E18">
-        <v>1325</v>
+        <v>2292</v>
       </c>
       <c r="F18">
-        <v>3101</v>
+        <v>5957</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
-        <v>45275</v>
+        <v>45286</v>
       </c>
       <c r="C19">
-        <v>691</v>
+        <v>1700</v>
       </c>
       <c r="D19">
-        <v>352</v>
+        <v>823</v>
       </c>
       <c r="E19">
-        <v>905</v>
+        <v>1403</v>
       </c>
       <c r="F19">
-        <v>1948</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
-        <v>45274</v>
+        <v>45285</v>
       </c>
       <c r="C20">
-        <v>406</v>
+        <v>1131</v>
       </c>
       <c r="D20">
-        <v>353</v>
+        <v>589</v>
       </c>
       <c r="E20">
-        <v>656</v>
+        <v>1149</v>
       </c>
       <c r="F20">
-        <v>1415</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>45273</v>
+        <v>45283</v>
       </c>
       <c r="C21">
-        <v>420</v>
+        <v>638</v>
       </c>
       <c r="D21">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="E21">
-        <v>653</v>
+        <v>700</v>
       </c>
       <c r="F21">
-        <v>1390</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1">
-        <v>45272</v>
+        <v>45282</v>
       </c>
       <c r="C22">
-        <v>356</v>
+        <v>644</v>
       </c>
       <c r="D22">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="E22">
-        <v>554</v>
+        <v>767</v>
       </c>
       <c r="F22">
-        <v>1173</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
-        <v>45271</v>
+        <v>45281</v>
       </c>
       <c r="C23">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D23">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="E23">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="F23">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
-        <v>45270</v>
+        <v>45280</v>
       </c>
       <c r="C24">
-        <v>931</v>
+        <v>459</v>
       </c>
       <c r="D24">
-        <v>630</v>
+        <v>333</v>
       </c>
       <c r="E24">
-        <v>1191</v>
+        <v>710</v>
       </c>
       <c r="F24">
-        <v>2752</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
-        <v>45269</v>
+        <v>45279</v>
       </c>
       <c r="C25">
-        <v>1343</v>
+        <v>298</v>
       </c>
       <c r="D25">
-        <v>675</v>
+        <v>199</v>
       </c>
       <c r="E25">
-        <v>1643</v>
+        <v>498</v>
       </c>
       <c r="F25">
-        <v>3661</v>
+        <v>995</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
-        <v>45268</v>
+        <v>45278</v>
       </c>
       <c r="C26">
-        <v>915</v>
+        <v>507</v>
       </c>
       <c r="D26">
-        <v>497</v>
+        <v>343</v>
       </c>
       <c r="E26">
-        <v>1006</v>
+        <v>707</v>
       </c>
       <c r="F26">
-        <v>2418</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
-        <v>45267</v>
+        <v>45277</v>
       </c>
       <c r="C27">
-        <v>335</v>
+        <v>829</v>
       </c>
       <c r="D27">
-        <v>259</v>
+        <v>512</v>
       </c>
       <c r="E27">
-        <v>635</v>
+        <v>1215</v>
       </c>
       <c r="F27">
-        <v>1229</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1">
-        <v>45266</v>
+        <v>45276</v>
       </c>
       <c r="C28">
-        <v>552</v>
+        <v>1148</v>
       </c>
       <c r="D28">
-        <v>235</v>
+        <v>628</v>
       </c>
       <c r="E28">
-        <v>531</v>
+        <v>1325</v>
       </c>
       <c r="F28">
-        <v>1318</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1">
-        <v>45265</v>
+        <v>45275</v>
       </c>
       <c r="C29">
-        <v>332</v>
+        <v>691</v>
       </c>
       <c r="D29">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="E29">
-        <v>541</v>
+        <v>905</v>
       </c>
       <c r="F29">
-        <v>1130</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1">
-        <v>45264</v>
+        <v>45274</v>
       </c>
       <c r="C30">
-        <v>528</v>
+        <v>406</v>
       </c>
       <c r="D30">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="E30">
-        <v>694</v>
+        <v>656</v>
       </c>
       <c r="F30">
-        <v>1506</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
-        <v>45263</v>
+        <v>45273</v>
       </c>
       <c r="C31">
-        <v>1130</v>
+        <v>420</v>
       </c>
       <c r="D31">
-        <v>631</v>
+        <v>317</v>
       </c>
       <c r="E31">
-        <v>1229</v>
+        <v>653</v>
       </c>
       <c r="F31">
-        <v>2990</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
-        <v>45262</v>
+        <v>45272</v>
       </c>
       <c r="C32">
-        <v>1559</v>
+        <v>356</v>
       </c>
       <c r="D32">
-        <v>802</v>
+        <v>263</v>
       </c>
       <c r="E32">
-        <v>1624</v>
+        <v>554</v>
       </c>
       <c r="F32">
-        <v>3985</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
-        <v>45261</v>
+        <v>45271</v>
       </c>
       <c r="C33">
-        <v>753</v>
+        <v>363</v>
       </c>
       <c r="D33">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="E33">
-        <v>882</v>
+        <v>718</v>
       </c>
       <c r="F33">
-        <v>2035</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1">
-        <v>45260</v>
+        <v>45270</v>
       </c>
       <c r="C34">
-        <v>405</v>
+        <v>931</v>
       </c>
       <c r="D34">
-        <v>370</v>
+        <v>630</v>
       </c>
       <c r="E34">
-        <v>744</v>
+        <v>1191</v>
       </c>
       <c r="F34">
-        <v>1519</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
-        <v>45259</v>
+        <v>45269</v>
       </c>
       <c r="C35">
-        <v>550</v>
+        <v>1343</v>
       </c>
       <c r="D35">
-        <v>346</v>
+        <v>675</v>
       </c>
       <c r="E35">
-        <v>620</v>
+        <v>1643</v>
       </c>
       <c r="F35">
-        <v>1516</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1">
-        <v>45258</v>
+        <v>45268</v>
       </c>
       <c r="C36">
-        <v>410</v>
+        <v>915</v>
       </c>
       <c r="D36">
-        <v>280</v>
+        <v>497</v>
       </c>
       <c r="E36">
-        <v>666</v>
+        <v>1006</v>
       </c>
       <c r="F36">
-        <v>1356</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1">
-        <v>45257</v>
+        <v>45267</v>
       </c>
       <c r="C37">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="D37">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="E37">
-        <v>749</v>
+        <v>635</v>
       </c>
       <c r="F37">
-        <v>1353</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1">
-        <v>45256</v>
+        <v>45266</v>
       </c>
       <c r="C38">
-        <v>988</v>
+        <v>552</v>
       </c>
       <c r="D38">
-        <v>737</v>
+        <v>235</v>
       </c>
       <c r="E38">
-        <v>1317</v>
+        <v>531</v>
       </c>
       <c r="F38">
-        <v>3042</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1">
-        <v>45255</v>
+        <v>45265</v>
       </c>
       <c r="C39">
-        <v>1504</v>
+        <v>332</v>
       </c>
       <c r="D39">
-        <v>726</v>
+        <v>257</v>
       </c>
       <c r="E39">
-        <v>1560</v>
+        <v>541</v>
       </c>
       <c r="F39">
-        <v>3790</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>45254</v>
+        <v>45264</v>
       </c>
       <c r="C40">
-        <v>843</v>
+        <v>528</v>
       </c>
       <c r="D40">
-        <v>434</v>
+        <v>284</v>
       </c>
       <c r="E40">
-        <v>916</v>
+        <v>694</v>
       </c>
       <c r="F40">
-        <v>2193</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1">
-        <v>45253</v>
+        <v>45263</v>
       </c>
       <c r="C41">
-        <v>381</v>
+        <v>1130</v>
       </c>
       <c r="D41">
-        <v>313</v>
+        <v>631</v>
       </c>
       <c r="E41">
-        <v>640</v>
+        <v>1229</v>
       </c>
       <c r="F41">
-        <v>1334</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1">
-        <v>45252</v>
+        <v>45262</v>
       </c>
       <c r="C42">
-        <v>413</v>
+        <v>1559</v>
       </c>
       <c r="D42">
-        <v>296</v>
+        <v>802</v>
       </c>
       <c r="E42">
-        <v>545</v>
+        <v>1624</v>
       </c>
       <c r="F42">
-        <v>1254</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1">
-        <v>45251</v>
+        <v>45261</v>
       </c>
       <c r="C43">
-        <v>251</v>
+        <v>753</v>
       </c>
       <c r="D43">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="E43">
-        <v>523</v>
+        <v>882</v>
       </c>
       <c r="F43">
-        <v>1020</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1">
-        <v>45250</v>
+        <v>45260</v>
       </c>
       <c r="C44">
-        <v>499</v>
+        <v>405</v>
       </c>
       <c r="D44">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="E44">
-        <v>679</v>
+        <v>744</v>
       </c>
       <c r="F44">
-        <v>1503</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1">
-        <v>45249</v>
+        <v>45259</v>
       </c>
       <c r="C45">
-        <v>1084</v>
+        <v>550</v>
       </c>
       <c r="D45">
-        <v>618</v>
+        <v>346</v>
       </c>
       <c r="E45">
-        <v>1139</v>
+        <v>620</v>
       </c>
       <c r="F45">
-        <v>2841</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1">
-        <v>45248</v>
+        <v>45258</v>
       </c>
       <c r="C46">
-        <v>2016</v>
+        <v>410</v>
       </c>
       <c r="D46">
-        <v>846</v>
+        <v>280</v>
       </c>
       <c r="E46">
-        <v>1594</v>
+        <v>666</v>
       </c>
       <c r="F46">
-        <v>4456</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1">
-        <v>45247</v>
+        <v>45257</v>
       </c>
       <c r="C47">
-        <v>1157</v>
+        <v>308</v>
       </c>
       <c r="D47">
-        <v>610</v>
+        <v>296</v>
       </c>
       <c r="E47">
-        <v>1132</v>
+        <v>749</v>
       </c>
       <c r="F47">
-        <v>2899</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>45246</v>
+        <v>45256</v>
       </c>
       <c r="C48">
-        <v>452</v>
+        <v>988</v>
       </c>
       <c r="D48">
-        <v>314</v>
+        <v>737</v>
       </c>
       <c r="E48">
-        <v>653</v>
+        <v>1317</v>
       </c>
       <c r="F48">
-        <v>1419</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1">
-        <v>45245</v>
+        <v>45255</v>
       </c>
       <c r="C49">
-        <v>745</v>
+        <v>1504</v>
       </c>
       <c r="D49">
-        <v>262</v>
+        <v>726</v>
       </c>
       <c r="E49">
-        <v>635</v>
+        <v>1560</v>
       </c>
       <c r="F49">
-        <v>1642</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1">
-        <v>45244</v>
+        <v>45254</v>
       </c>
       <c r="C50">
-        <v>131</v>
+        <v>843</v>
       </c>
       <c r="D50">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="E50">
-        <v>431</v>
+        <v>916</v>
       </c>
       <c r="F50">
-        <v>700</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1">
-        <v>45243</v>
+        <v>45253</v>
       </c>
       <c r="C51">
-        <v>183</v>
+        <v>381</v>
       </c>
       <c r="D51">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="E51">
-        <v>583</v>
+        <v>640</v>
       </c>
       <c r="F51">
-        <v>1000</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
-        <v>45242</v>
+        <v>45252</v>
       </c>
       <c r="C52">
-        <v>1246</v>
+        <v>413</v>
       </c>
       <c r="D52">
-        <v>783</v>
+        <v>296</v>
       </c>
       <c r="E52">
-        <v>1234</v>
+        <v>545</v>
       </c>
       <c r="F52">
-        <v>3263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B53" s="1">
-        <v>45241</v>
+        <v>45251</v>
       </c>
       <c r="C53">
-        <v>1847</v>
+        <v>251</v>
       </c>
       <c r="D53">
-        <v>962</v>
+        <v>246</v>
       </c>
       <c r="E53">
-        <v>1737</v>
+        <v>523</v>
       </c>
       <c r="F53">
-        <v>4546</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
-        <v>45240</v>
+        <v>45250</v>
       </c>
       <c r="C54">
-        <v>1368</v>
+        <v>499</v>
       </c>
       <c r="D54">
-        <v>671</v>
+        <v>325</v>
       </c>
       <c r="E54">
-        <v>1636</v>
+        <v>679</v>
       </c>
       <c r="F54">
-        <v>3675</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1">
-        <v>45239</v>
+        <v>45249</v>
       </c>
       <c r="C55">
-        <v>218</v>
+        <v>1084</v>
       </c>
       <c r="D55">
-        <v>255</v>
+        <v>618</v>
       </c>
       <c r="E55">
-        <v>511</v>
+        <v>1139</v>
       </c>
       <c r="F55">
-        <v>984</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1">
-        <v>45238</v>
+        <v>45248</v>
       </c>
       <c r="C56">
-        <v>380</v>
+        <v>2016</v>
       </c>
       <c r="D56">
-        <v>200</v>
+        <v>846</v>
       </c>
       <c r="E56">
-        <v>594</v>
+        <v>1594</v>
       </c>
       <c r="F56">
-        <v>1174</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1">
-        <v>45237</v>
+        <v>45247</v>
       </c>
       <c r="C57">
-        <v>232</v>
+        <v>1157</v>
       </c>
       <c r="D57">
-        <v>200</v>
+        <v>610</v>
       </c>
       <c r="E57">
-        <v>399</v>
+        <v>1132</v>
       </c>
       <c r="F57">
-        <v>831</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1">
-        <v>45236</v>
+        <v>45246</v>
       </c>
       <c r="C58">
-        <v>336</v>
+        <v>452</v>
       </c>
       <c r="D58">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="E58">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="F58">
-        <v>1190</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>45235</v>
+        <v>45245</v>
       </c>
       <c r="C59">
-        <v>984</v>
+        <v>745</v>
       </c>
       <c r="D59">
-        <v>496</v>
+        <v>262</v>
       </c>
       <c r="E59">
-        <v>1001</v>
+        <v>635</v>
       </c>
       <c r="F59">
-        <v>2481</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B60" s="1">
-        <v>45234</v>
+        <v>45244</v>
       </c>
       <c r="C60">
-        <v>1666</v>
+        <v>131</v>
       </c>
       <c r="D60">
-        <v>642</v>
+        <v>138</v>
       </c>
       <c r="E60">
-        <v>1252</v>
+        <v>431</v>
       </c>
       <c r="F60">
-        <v>3560</v>
+        <v>700</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B61" s="1">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="C61">
-        <v>3192</v>
+        <v>183</v>
       </c>
       <c r="D61">
-        <v>743</v>
+        <v>234</v>
       </c>
       <c r="E61">
-        <v>1702</v>
+        <v>583</v>
       </c>
       <c r="F61">
-        <v>5637</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1">
-        <v>45232</v>
+        <v>45242</v>
       </c>
       <c r="C62">
-        <v>2329</v>
+        <v>1246</v>
       </c>
       <c r="D62">
-        <v>574</v>
+        <v>783</v>
       </c>
       <c r="E62">
-        <v>1512</v>
+        <v>1234</v>
       </c>
       <c r="F62">
-        <v>4415</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1">
-        <v>45231</v>
+        <v>45241</v>
       </c>
       <c r="C63">
-        <v>1427</v>
+        <v>1847</v>
       </c>
       <c r="D63">
-        <v>432</v>
+        <v>962</v>
       </c>
       <c r="E63">
-        <v>860</v>
+        <v>1737</v>
       </c>
       <c r="F63">
-        <v>2719</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1">
-        <v>45230</v>
+        <v>45240</v>
       </c>
       <c r="C64">
-        <v>881</v>
+        <v>1368</v>
       </c>
       <c r="D64">
-        <v>287</v>
+        <v>671</v>
       </c>
       <c r="E64">
-        <v>774</v>
+        <v>1636</v>
       </c>
       <c r="F64">
-        <v>1942</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1">
-        <v>45229</v>
+        <v>45239</v>
       </c>
       <c r="C65">
-        <v>964</v>
+        <v>218</v>
       </c>
       <c r="D65">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="E65">
-        <v>812</v>
+        <v>511</v>
       </c>
       <c r="F65">
-        <v>2062</v>
+        <v>984</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1">
-        <v>45228</v>
+        <v>45238</v>
       </c>
       <c r="C66">
-        <v>1247</v>
+        <v>380</v>
       </c>
       <c r="D66">
-        <v>469</v>
+        <v>200</v>
       </c>
       <c r="E66">
+        <v>594</v>
+      </c>
+      <c r="F66">
         <v>1174</v>
-      </c>
-      <c r="F66">
-        <v>2890</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1">
-        <v>45227</v>
+        <v>45237</v>
       </c>
       <c r="C67">
-        <v>1448</v>
+        <v>232</v>
       </c>
       <c r="D67">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="E67">
-        <v>1253</v>
+        <v>399</v>
       </c>
       <c r="F67">
-        <v>3231</v>
+        <v>831</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B68" s="1">
-        <v>45226</v>
+        <v>45236</v>
       </c>
       <c r="C68">
-        <v>1374</v>
+        <v>336</v>
       </c>
       <c r="D68">
-        <v>364</v>
+        <v>250</v>
       </c>
       <c r="E68">
-        <v>1018</v>
+        <v>604</v>
       </c>
       <c r="F68">
-        <v>2756</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B69" s="1">
-        <v>45225</v>
+        <v>45235</v>
       </c>
       <c r="C69">
-        <v>887</v>
+        <v>984</v>
       </c>
       <c r="D69">
-        <v>283</v>
+        <v>496</v>
       </c>
       <c r="E69">
-        <v>820</v>
+        <v>1001</v>
       </c>
       <c r="F69">
-        <v>1990</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B70" s="1">
-        <v>45224</v>
+        <v>45234</v>
       </c>
       <c r="C70">
-        <v>1165</v>
+        <v>1666</v>
       </c>
       <c r="D70">
-        <v>208</v>
+        <v>642</v>
       </c>
       <c r="E70">
-        <v>662</v>
+        <v>1252</v>
       </c>
       <c r="F70">
-        <v>2035</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B71" s="1">
-        <v>45223</v>
+        <v>45233</v>
       </c>
       <c r="C71">
-        <v>676</v>
+        <v>3192</v>
       </c>
       <c r="D71">
-        <v>195</v>
+        <v>743</v>
       </c>
       <c r="E71">
-        <v>569</v>
+        <v>1702</v>
       </c>
       <c r="F71">
-        <v>1440</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1">
-        <v>45222</v>
+        <v>45232</v>
       </c>
       <c r="C72">
-        <v>539</v>
+        <v>2329</v>
       </c>
       <c r="D72">
-        <v>222</v>
+        <v>574</v>
       </c>
       <c r="E72">
-        <v>639</v>
+        <v>1512</v>
       </c>
       <c r="F72">
-        <v>1400</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1">
-        <v>45221</v>
+        <v>45231</v>
       </c>
       <c r="C73">
-        <v>1399</v>
+        <v>1427</v>
       </c>
       <c r="D73">
-        <v>620</v>
+        <v>432</v>
       </c>
       <c r="E73">
-        <v>1208</v>
+        <v>860</v>
       </c>
       <c r="F73">
-        <v>3227</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B74" s="1">
-        <v>45220</v>
+        <v>45230</v>
       </c>
       <c r="C74">
-        <v>1265</v>
+        <v>881</v>
       </c>
       <c r="D74">
-        <v>553</v>
+        <v>287</v>
       </c>
       <c r="E74">
-        <v>1296</v>
+        <v>774</v>
       </c>
       <c r="F74">
-        <v>3114</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B75" s="1">
-        <v>45219</v>
+        <v>45229</v>
       </c>
       <c r="C75">
-        <v>1038</v>
+        <v>964</v>
       </c>
       <c r="D75">
-        <v>397</v>
+        <v>286</v>
       </c>
       <c r="E75">
-        <v>1029</v>
+        <v>812</v>
       </c>
       <c r="F75">
-        <v>2464</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B76" s="1">
-        <v>45218</v>
+        <v>45228</v>
       </c>
       <c r="C76">
-        <v>316</v>
+        <v>1247</v>
       </c>
       <c r="D76">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="E76">
-        <v>650</v>
+        <v>1174</v>
       </c>
       <c r="F76">
-        <v>1198</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B77" s="1">
-        <v>45217</v>
+        <v>45227</v>
       </c>
       <c r="C77">
-        <v>597</v>
+        <v>1448</v>
       </c>
       <c r="D77">
-        <v>195</v>
+        <v>530</v>
       </c>
       <c r="E77">
-        <v>551</v>
+        <v>1253</v>
       </c>
       <c r="F77">
-        <v>1343</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B78" s="1">
-        <v>45216</v>
+        <v>45226</v>
       </c>
       <c r="C78">
-        <v>346</v>
+        <v>1374</v>
       </c>
       <c r="D78">
-        <v>151</v>
+        <v>364</v>
       </c>
       <c r="E78">
-        <v>462</v>
+        <v>1018</v>
       </c>
       <c r="F78">
-        <v>959</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B79" s="1">
-        <v>45215</v>
+        <v>45225</v>
       </c>
       <c r="C79">
-        <v>406</v>
+        <v>887</v>
       </c>
       <c r="D79">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="E79">
-        <v>651</v>
+        <v>820</v>
       </c>
       <c r="F79">
-        <v>1279</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B80" s="1">
-        <v>45214</v>
+        <v>45224</v>
       </c>
       <c r="C80">
-        <v>979</v>
+        <v>1165</v>
       </c>
       <c r="D80">
-        <v>459</v>
+        <v>208</v>
       </c>
       <c r="E80">
-        <v>901</v>
+        <v>662</v>
       </c>
       <c r="F80">
-        <v>2339</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B81" s="1">
-        <v>45213</v>
+        <v>45223</v>
       </c>
       <c r="C81">
-        <v>1477</v>
+        <v>676</v>
       </c>
       <c r="D81">
-        <v>592</v>
+        <v>195</v>
       </c>
       <c r="E81">
-        <v>1309</v>
+        <v>569</v>
       </c>
       <c r="F81">
-        <v>3378</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B82" s="1">
-        <v>45212</v>
+        <v>45222</v>
       </c>
       <c r="C82">
-        <v>855</v>
+        <v>539</v>
       </c>
       <c r="D82">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="E82">
-        <v>919</v>
+        <v>639</v>
       </c>
       <c r="F82">
-        <v>2079</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B83" s="1">
-        <v>45211</v>
+        <v>45221</v>
       </c>
       <c r="C83">
-        <v>396</v>
+        <v>1399</v>
       </c>
       <c r="D83">
-        <v>241</v>
+        <v>620</v>
       </c>
       <c r="E83">
-        <v>615</v>
+        <v>1208</v>
       </c>
       <c r="F83">
-        <v>1252</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B84" s="1">
-        <v>45210</v>
+        <v>45220</v>
       </c>
       <c r="C84">
-        <v>645</v>
+        <v>1265</v>
       </c>
       <c r="D84">
-        <v>225</v>
+        <v>553</v>
       </c>
       <c r="E84">
-        <v>475</v>
+        <v>1296</v>
       </c>
       <c r="F84">
-        <v>1345</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B85" s="1">
-        <v>45209</v>
+        <v>45219</v>
       </c>
       <c r="C85">
-        <v>416</v>
+        <v>1038</v>
       </c>
       <c r="D85">
-        <v>247</v>
+        <v>397</v>
       </c>
       <c r="E85">
-        <v>473</v>
+        <v>1029</v>
       </c>
       <c r="F85">
-        <v>1136</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B86" s="1">
-        <v>45208</v>
+        <v>45218</v>
       </c>
       <c r="C86">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="D86">
         <v>232</v>
       </c>
       <c r="E86">
-        <v>528</v>
+        <v>650</v>
       </c>
       <c r="F86">
-        <v>1031</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B87" s="1">
-        <v>45207</v>
+        <v>45217</v>
       </c>
       <c r="C87">
-        <v>1079</v>
+        <v>597</v>
       </c>
       <c r="D87">
-        <v>561</v>
+        <v>195</v>
       </c>
       <c r="E87">
-        <v>1035</v>
+        <v>551</v>
       </c>
       <c r="F87">
-        <v>2675</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1">
-        <v>45206</v>
+        <v>45216</v>
       </c>
       <c r="C88">
-        <v>1421</v>
+        <v>346</v>
       </c>
       <c r="D88">
-        <v>533</v>
+        <v>151</v>
       </c>
       <c r="E88">
-        <v>1086</v>
+        <v>462</v>
       </c>
       <c r="F88">
-        <v>3040</v>
+        <v>959</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B89" s="1">
-        <v>45205</v>
+        <v>45215</v>
       </c>
       <c r="C89">
-        <v>655</v>
+        <v>406</v>
       </c>
       <c r="D89">
-        <v>343</v>
+        <v>222</v>
       </c>
       <c r="E89">
-        <v>717</v>
+        <v>651</v>
       </c>
       <c r="F89">
-        <v>1715</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B90" s="1">
-        <v>45204</v>
+        <v>45214</v>
       </c>
       <c r="C90">
-        <v>443</v>
+        <v>979</v>
       </c>
       <c r="D90">
-        <v>211</v>
+        <v>459</v>
       </c>
       <c r="E90">
-        <v>485</v>
+        <v>901</v>
       </c>
       <c r="F90">
-        <v>1139</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B91" s="1">
-        <v>45203</v>
+        <v>45213</v>
       </c>
       <c r="C91">
-        <v>522</v>
+        <v>1477</v>
       </c>
       <c r="D91">
-        <v>222</v>
+        <v>592</v>
       </c>
       <c r="E91">
-        <v>543</v>
+        <v>1309</v>
       </c>
       <c r="F91">
-        <v>1287</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B92" s="1">
-        <v>45202</v>
+        <v>45212</v>
       </c>
       <c r="C92">
-        <v>400</v>
+        <v>855</v>
       </c>
       <c r="D92">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="E92">
-        <v>489</v>
+        <v>919</v>
       </c>
       <c r="F92">
-        <v>1111</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B93" s="1">
-        <v>45201</v>
+        <v>45211</v>
       </c>
       <c r="C93">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="D93">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E93">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="F93">
-        <v>1242</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B94" s="1">
-        <v>45200</v>
+        <v>45210</v>
       </c>
       <c r="C94">
-        <v>1211</v>
+        <v>645</v>
       </c>
       <c r="D94">
-        <v>614</v>
+        <v>225</v>
       </c>
       <c r="E94">
-        <v>1099</v>
+        <v>475</v>
       </c>
       <c r="F94">
-        <v>2924</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
-        <v>45199</v>
+        <v>45209</v>
       </c>
       <c r="C95">
-        <v>1784</v>
+        <v>416</v>
       </c>
       <c r="D95">
-        <v>824</v>
+        <v>247</v>
       </c>
       <c r="E95">
-        <v>1490</v>
+        <v>473</v>
       </c>
       <c r="F95">
-        <v>4098</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B96" s="1">
-        <v>45198</v>
+        <v>45208</v>
       </c>
       <c r="C96">
-        <v>1044</v>
+        <v>271</v>
       </c>
       <c r="D96">
-        <v>426</v>
+        <v>232</v>
       </c>
       <c r="E96">
-        <v>1100</v>
+        <v>528</v>
       </c>
       <c r="F96">
-        <v>2570</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B97" s="1">
-        <v>45197</v>
+        <v>45207</v>
       </c>
       <c r="C97">
-        <v>609</v>
+        <v>1079</v>
       </c>
       <c r="D97">
-        <v>398</v>
+        <v>561</v>
       </c>
       <c r="E97">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F97">
-        <v>2044</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B98" s="1">
-        <v>45196</v>
+        <v>45206</v>
       </c>
       <c r="C98">
-        <v>451</v>
+        <v>1421</v>
       </c>
       <c r="D98">
-        <v>338</v>
+        <v>533</v>
       </c>
       <c r="E98">
-        <v>726</v>
+        <v>1086</v>
       </c>
       <c r="F98">
-        <v>1515</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B99" s="1">
-        <v>45195</v>
+        <v>45205</v>
       </c>
       <c r="C99">
-        <v>329</v>
+        <v>655</v>
       </c>
       <c r="D99">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="E99">
-        <v>778</v>
+        <v>717</v>
       </c>
       <c r="F99">
-        <v>1380</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B100" s="1">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="C100">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="D100">
-        <v>358</v>
+        <v>211</v>
       </c>
       <c r="E100">
-        <v>771</v>
+        <v>485</v>
       </c>
       <c r="F100">
-        <v>1532</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B101" s="1">
-        <v>45193</v>
+        <v>45203</v>
       </c>
       <c r="C101">
-        <v>1336</v>
+        <v>522</v>
       </c>
       <c r="D101">
-        <v>617</v>
+        <v>222</v>
       </c>
       <c r="E101">
-        <v>1151</v>
+        <v>543</v>
       </c>
       <c r="F101">
-        <v>3104</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B102" s="1">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="C102">
-        <v>1696</v>
+        <v>400</v>
       </c>
       <c r="D102">
-        <v>786</v>
+        <v>222</v>
       </c>
       <c r="E102">
-        <v>1329</v>
+        <v>489</v>
       </c>
       <c r="F102">
-        <v>3811</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B103" s="1">
-        <v>45191</v>
+        <v>45201</v>
       </c>
       <c r="C103">
-        <v>844</v>
+        <v>434</v>
       </c>
       <c r="D103">
-        <v>456</v>
+        <v>263</v>
       </c>
       <c r="E103">
-        <v>932</v>
+        <v>545</v>
       </c>
       <c r="F103">
-        <v>2232</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B104" s="1">
-        <v>45190</v>
+        <v>45200</v>
       </c>
       <c r="C104">
-        <v>425</v>
+        <v>1211</v>
       </c>
       <c r="D104">
-        <v>357</v>
+        <v>614</v>
       </c>
       <c r="E104">
-        <v>931</v>
+        <v>1099</v>
       </c>
       <c r="F104">
-        <v>1713</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1">
-        <v>45189</v>
+        <v>45199</v>
       </c>
       <c r="C105">
-        <v>344</v>
+        <v>1784</v>
       </c>
       <c r="D105">
-        <v>293</v>
+        <v>824</v>
       </c>
       <c r="E105">
-        <v>704</v>
+        <v>1490</v>
       </c>
       <c r="F105">
-        <v>1341</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B106" s="1">
-        <v>45188</v>
+        <v>45198</v>
       </c>
       <c r="C106">
-        <v>300</v>
+        <v>1044</v>
       </c>
       <c r="D106">
-        <v>317</v>
+        <v>426</v>
       </c>
       <c r="E106">
-        <v>819</v>
+        <v>1100</v>
       </c>
       <c r="F106">
-        <v>1436</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B107" s="1">
-        <v>45187</v>
+        <v>45197</v>
       </c>
       <c r="C107">
-        <v>445</v>
+        <v>609</v>
       </c>
       <c r="D107">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E107">
-        <v>938</v>
+        <v>1037</v>
       </c>
       <c r="F107">
-        <v>1774</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B108" s="1">
-        <v>45186</v>
+        <v>45196</v>
       </c>
       <c r="C108">
-        <v>1621</v>
+        <v>451</v>
       </c>
       <c r="D108">
-        <v>780</v>
+        <v>338</v>
       </c>
       <c r="E108">
-        <v>1206</v>
+        <v>726</v>
       </c>
       <c r="F108">
-        <v>3607</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45195</v>
+      </c>
+      <c r="C109">
+        <v>329</v>
+      </c>
+      <c r="D109">
+        <v>273</v>
+      </c>
+      <c r="E109">
+        <v>778</v>
+      </c>
+      <c r="F109">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45194</v>
+      </c>
+      <c r="C110">
+        <v>403</v>
+      </c>
+      <c r="D110">
+        <v>358</v>
+      </c>
+      <c r="E110">
+        <v>771</v>
+      </c>
+      <c r="F110">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45193</v>
+      </c>
+      <c r="C111">
+        <v>1336</v>
+      </c>
+      <c r="D111">
+        <v>617</v>
+      </c>
+      <c r="E111">
+        <v>1151</v>
+      </c>
+      <c r="F111">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>10</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B112" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C112">
+        <v>1696</v>
+      </c>
+      <c r="D112">
+        <v>786</v>
+      </c>
+      <c r="E112">
+        <v>1329</v>
+      </c>
+      <c r="F112">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45191</v>
+      </c>
+      <c r="C113">
+        <v>844</v>
+      </c>
+      <c r="D113">
+        <v>456</v>
+      </c>
+      <c r="E113">
+        <v>932</v>
+      </c>
+      <c r="F113">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45190</v>
+      </c>
+      <c r="C114">
+        <v>425</v>
+      </c>
+      <c r="D114">
+        <v>357</v>
+      </c>
+      <c r="E114">
+        <v>931</v>
+      </c>
+      <c r="F114">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45189</v>
+      </c>
+      <c r="C115">
+        <v>344</v>
+      </c>
+      <c r="D115">
+        <v>293</v>
+      </c>
+      <c r="E115">
+        <v>704</v>
+      </c>
+      <c r="F115">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45188</v>
+      </c>
+      <c r="C116">
+        <v>300</v>
+      </c>
+      <c r="D116">
+        <v>317</v>
+      </c>
+      <c r="E116">
+        <v>819</v>
+      </c>
+      <c r="F116">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45187</v>
+      </c>
+      <c r="C117">
+        <v>445</v>
+      </c>
+      <c r="D117">
+        <v>391</v>
+      </c>
+      <c r="E117">
+        <v>938</v>
+      </c>
+      <c r="F117">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45186</v>
+      </c>
+      <c r="C118">
+        <v>1621</v>
+      </c>
+      <c r="D118">
+        <v>780</v>
+      </c>
+      <c r="E118">
+        <v>1206</v>
+      </c>
+      <c r="F118">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="1">
         <v>45185</v>
       </c>
-      <c r="C109">
+      <c r="C119">
         <v>1524</v>
       </c>
-      <c r="D109">
+      <c r="D119">
         <v>705</v>
       </c>
-      <c r="E109">
+      <c r="E119">
         <v>1293</v>
       </c>
-      <c r="F109">
+      <c r="F119">
         <v>3522</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573C4CB1-4B1B-42EF-BE4F-7031F03CBC5F}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45303</v>
+      </c>
+      <c r="C1">
+        <v>534</v>
+      </c>
+      <c r="D1">
+        <v>384</v>
+      </c>
+      <c r="E1">
+        <v>507</v>
+      </c>
+      <c r="F1">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C2">
+        <v>457</v>
+      </c>
+      <c r="D2">
+        <v>390</v>
+      </c>
+      <c r="E2">
+        <v>670</v>
+      </c>
+      <c r="F2">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45301</v>
+      </c>
+      <c r="C3">
+        <v>343</v>
+      </c>
+      <c r="D3">
+        <v>340</v>
+      </c>
+      <c r="E3">
+        <v>467</v>
+      </c>
+      <c r="F3">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C4">
+        <v>318</v>
+      </c>
+      <c r="D4">
+        <v>324</v>
+      </c>
+      <c r="E4">
+        <v>456</v>
+      </c>
+      <c r="F4">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C5">
+        <v>431</v>
+      </c>
+      <c r="D5">
+        <v>345</v>
+      </c>
+      <c r="E5">
+        <v>569</v>
+      </c>
+      <c r="F5">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45298</v>
+      </c>
+      <c r="C6">
+        <v>935</v>
+      </c>
+      <c r="D6">
+        <v>717</v>
+      </c>
+      <c r="E6">
+        <v>902</v>
+      </c>
+      <c r="F6">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C7">
+        <v>1514</v>
+      </c>
+      <c r="D7">
+        <v>961</v>
+      </c>
+      <c r="E7">
+        <v>1428</v>
+      </c>
+      <c r="F7">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45296</v>
+      </c>
+      <c r="C8">
+        <v>1042</v>
+      </c>
+      <c r="D8">
+        <v>716</v>
+      </c>
+      <c r="E8">
+        <v>1118</v>
+      </c>
+      <c r="F8">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C9">
+        <v>958</v>
+      </c>
+      <c r="D9">
+        <v>593</v>
+      </c>
+      <c r="E9">
+        <v>876</v>
+      </c>
+      <c r="F9">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45294</v>
+      </c>
+      <c r="C10">
+        <v>1068</v>
+      </c>
+      <c r="D10">
+        <v>581</v>
+      </c>
+      <c r="E10">
+        <v>863</v>
+      </c>
+      <c r="F10">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C11">
+        <v>1175</v>
+      </c>
+      <c r="D11">
+        <v>827</v>
+      </c>
+      <c r="E11">
+        <v>1295</v>
+      </c>
+      <c r="F11">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C12">
+        <v>1422</v>
+      </c>
+      <c r="D12">
+        <v>727</v>
+      </c>
+      <c r="E12">
+        <v>1214</v>
+      </c>
+      <c r="F12">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C13">
+        <v>2046</v>
+      </c>
+      <c r="D13">
+        <v>841</v>
+      </c>
+      <c r="E13">
+        <v>2009</v>
+      </c>
+      <c r="F13">
+        <v>4896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>